--- a/Data/RatingExample1_Intel.xlsx
+++ b/Data/RatingExample1_Intel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niraj\PycharmProjects\RFTSeleniumTutorial\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED7BF404-7CF5-491B-9E26-644D165CE33E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D338195D-CBD7-4B85-9F34-915A62A17AE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A55E5FDA-B46E-4E4C-B0FC-D9DD7C24980F}"/>
   </bookViews>
@@ -4818,6 +4818,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -5028,7 +5029,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -11691,6 +11691,39 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
+      <sheetName val="Amazon"/>
+      <sheetName val="Bally"/>
+      <sheetName val="Intel"/>
+      <sheetName val="Microsoft"/>
+      <sheetName val="UltaBeauty"/>
+      <sheetName val="EnvLoginDetails"/>
+      <sheetName val="Data"/>
+      <sheetName val="UnderlyingPolicies"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2">
+        <row r="6">
+          <cell r="P6">
+            <v>0.81</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
       <sheetName val="Legend"/>
       <sheetName val="Rate Adj Modifier"/>
       <sheetName val="Re Rate Primary"/>
@@ -11821,33 +11854,6 @@
       <sheetData sheetId="23" refreshError="1"/>
       <sheetData sheetId="24" refreshError="1"/>
       <sheetData sheetId="25" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Bally"/>
-      <sheetName val="Intel"/>
-      <sheetName val="EnvLoginDetails"/>
-      <sheetName val="Data"/>
-      <sheetName val="UnderlyingPolicies"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="6">
-          <cell r="P6">
-            <v>0.81</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -12153,7 +12159,7 @@
   <dimension ref="B2:G108"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B54" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="D80" sqref="D80"/>
@@ -12626,8 +12632,8 @@
         <v>1</v>
       </c>
       <c r="E56" s="65"/>
-      <c r="G56" s="506">
-        <f>[2]Intel!$P$6</f>
+      <c r="G56" s="436">
+        <f>[1]Intel!$P$6</f>
         <v>0.81</v>
       </c>
     </row>
@@ -12741,7 +12747,7 @@
         <v>79</v>
       </c>
       <c r="E69" s="65"/>
-      <c r="G69" s="506"/>
+      <c r="G69" s="436"/>
     </row>
     <row r="70" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
@@ -13729,53 +13735,53 @@
       <c r="F38" s="252"/>
     </row>
     <row r="39" spans="1:16" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="437" t="s">
+      <c r="A39" s="438" t="s">
         <v>192</v>
       </c>
-      <c r="B39" s="438"/>
-      <c r="C39" s="438"/>
-      <c r="D39" s="438"/>
-      <c r="E39" s="439"/>
+      <c r="B39" s="439"/>
+      <c r="C39" s="439"/>
+      <c r="D39" s="439"/>
+      <c r="E39" s="440"/>
       <c r="F39" s="255"/>
     </row>
     <row r="40" spans="1:16" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="437" t="s">
+      <c r="A40" s="438" t="s">
         <v>193</v>
       </c>
-      <c r="B40" s="438"/>
-      <c r="C40" s="438"/>
-      <c r="D40" s="438"/>
-      <c r="E40" s="439"/>
+      <c r="B40" s="439"/>
+      <c r="C40" s="439"/>
+      <c r="D40" s="439"/>
+      <c r="E40" s="440"/>
       <c r="F40" s="255"/>
     </row>
     <row r="41" spans="1:16" ht="69" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="437" t="s">
+      <c r="A41" s="438" t="s">
         <v>194</v>
       </c>
-      <c r="B41" s="438"/>
-      <c r="C41" s="438"/>
-      <c r="D41" s="438"/>
-      <c r="E41" s="439"/>
+      <c r="B41" s="439"/>
+      <c r="C41" s="439"/>
+      <c r="D41" s="439"/>
+      <c r="E41" s="440"/>
       <c r="F41" s="255"/>
     </row>
     <row r="42" spans="1:16" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="437" t="s">
+      <c r="A42" s="438" t="s">
         <v>195</v>
       </c>
-      <c r="B42" s="438"/>
-      <c r="C42" s="438"/>
-      <c r="D42" s="438"/>
-      <c r="E42" s="439"/>
+      <c r="B42" s="439"/>
+      <c r="C42" s="439"/>
+      <c r="D42" s="439"/>
+      <c r="E42" s="440"/>
       <c r="F42" s="255"/>
     </row>
     <row r="43" spans="1:16" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="437" t="s">
+      <c r="A43" s="438" t="s">
         <v>196</v>
       </c>
-      <c r="B43" s="438"/>
-      <c r="C43" s="438"/>
-      <c r="D43" s="438"/>
-      <c r="E43" s="439"/>
+      <c r="B43" s="439"/>
+      <c r="C43" s="439"/>
+      <c r="D43" s="439"/>
+      <c r="E43" s="440"/>
       <c r="F43" s="255"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
@@ -14217,16 +14223,16 @@
       <c r="F92" s="252"/>
     </row>
     <row r="93" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="447" t="s">
+      <c r="A93" s="448" t="s">
         <v>353</v>
       </c>
-      <c r="B93" s="448"/>
-      <c r="C93" s="448"/>
-      <c r="D93" s="448"/>
+      <c r="B93" s="449"/>
+      <c r="C93" s="449"/>
+      <c r="D93" s="449"/>
       <c r="F93" s="252"/>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A94" s="449" t="s">
+      <c r="A94" s="450" t="s">
         <v>354</v>
       </c>
       <c r="B94" s="220" t="s">
@@ -14245,7 +14251,7 @@
       <c r="J94" s="267"/>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A95" s="449"/>
+      <c r="A95" s="450"/>
       <c r="B95" s="221" t="s">
         <v>359</v>
       </c>
@@ -14523,12 +14529,12 @@
       <c r="N107" s="422"/>
     </row>
     <row r="108" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="446" t="s">
+      <c r="A108" s="447" t="s">
         <v>384</v>
       </c>
-      <c r="B108" s="446"/>
-      <c r="C108" s="446"/>
-      <c r="D108" s="446"/>
+      <c r="B108" s="447"/>
+      <c r="C108" s="447"/>
+      <c r="D108" s="447"/>
       <c r="I108" s="272" t="s">
         <v>385</v>
       </c>
@@ -14540,10 +14546,10 @@
       <c r="N108" s="422"/>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A109" s="446"/>
-      <c r="B109" s="446"/>
-      <c r="C109" s="446"/>
-      <c r="D109" s="446"/>
+      <c r="A109" s="447"/>
+      <c r="B109" s="447"/>
+      <c r="C109" s="447"/>
+      <c r="D109" s="447"/>
       <c r="I109" s="272" t="s">
         <v>386</v>
       </c>
@@ -15114,53 +15120,53 @@
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="451" t="s">
+      <c r="A25" s="452" t="s">
         <v>424</v>
       </c>
-      <c r="B25" s="452"/>
-      <c r="C25" s="452"/>
-      <c r="D25" s="452"/>
-      <c r="E25" s="453"/>
+      <c r="B25" s="453"/>
+      <c r="C25" s="453"/>
+      <c r="D25" s="453"/>
+      <c r="E25" s="454"/>
       <c r="F25" s="252"/>
     </row>
     <row r="26" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="451" t="s">
+      <c r="A26" s="452" t="s">
         <v>425</v>
       </c>
-      <c r="B26" s="452"/>
-      <c r="C26" s="452"/>
-      <c r="D26" s="452"/>
-      <c r="E26" s="453"/>
+      <c r="B26" s="453"/>
+      <c r="C26" s="453"/>
+      <c r="D26" s="453"/>
+      <c r="E26" s="454"/>
       <c r="F26" s="252"/>
     </row>
     <row r="27" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="451" t="s">
+      <c r="A27" s="452" t="s">
         <v>426</v>
       </c>
-      <c r="B27" s="452"/>
-      <c r="C27" s="452"/>
-      <c r="D27" s="452"/>
-      <c r="E27" s="453"/>
+      <c r="B27" s="453"/>
+      <c r="C27" s="453"/>
+      <c r="D27" s="453"/>
+      <c r="E27" s="454"/>
       <c r="F27" s="252"/>
     </row>
     <row r="28" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="451" t="s">
+      <c r="A28" s="452" t="s">
         <v>427</v>
       </c>
-      <c r="B28" s="452"/>
-      <c r="C28" s="452"/>
-      <c r="D28" s="452"/>
-      <c r="E28" s="453"/>
+      <c r="B28" s="453"/>
+      <c r="C28" s="453"/>
+      <c r="D28" s="453"/>
+      <c r="E28" s="454"/>
       <c r="F28" s="255"/>
     </row>
     <row r="29" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="451" t="s">
+      <c r="A29" s="452" t="s">
         <v>428</v>
       </c>
-      <c r="B29" s="452"/>
-      <c r="C29" s="452"/>
-      <c r="D29" s="452"/>
-      <c r="E29" s="453"/>
+      <c r="B29" s="453"/>
+      <c r="C29" s="453"/>
+      <c r="D29" s="453"/>
+      <c r="E29" s="454"/>
       <c r="F29" s="255"/>
     </row>
     <row r="30" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -15488,42 +15494,42 @@
       </c>
     </row>
     <row r="59" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A59" s="450" t="s">
+      <c r="A59" s="451" t="s">
         <v>477</v>
       </c>
-      <c r="B59" s="450"/>
-      <c r="C59" s="450"/>
-      <c r="D59" s="450"/>
+      <c r="B59" s="451"/>
+      <c r="C59" s="451"/>
+      <c r="D59" s="451"/>
     </row>
     <row r="60" spans="1:4" ht="198.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="450" t="s">
+      <c r="A60" s="451" t="s">
         <v>478</v>
       </c>
-      <c r="B60" s="450"/>
-      <c r="C60" s="450"/>
-      <c r="D60" s="450"/>
+      <c r="B60" s="451"/>
+      <c r="C60" s="451"/>
+      <c r="D60" s="451"/>
     </row>
     <row r="61" spans="1:4" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61"/>
     </row>
     <row r="62" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A62" s="450" t="s">
+      <c r="A62" s="451" t="s">
         <v>479</v>
       </c>
-      <c r="B62" s="450"/>
-      <c r="C62" s="450"/>
-      <c r="D62" s="450"/>
+      <c r="B62" s="451"/>
+      <c r="C62" s="451"/>
+      <c r="D62" s="451"/>
     </row>
     <row r="63" spans="1:4" ht="323.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="297"/>
     </row>
     <row r="64" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A64" s="450" t="s">
+      <c r="A64" s="451" t="s">
         <v>480</v>
       </c>
-      <c r="B64" s="450"/>
-      <c r="C64" s="450"/>
-      <c r="D64" s="450"/>
+      <c r="B64" s="451"/>
+      <c r="C64" s="451"/>
+      <c r="D64" s="451"/>
     </row>
     <row r="65" spans="1:1" ht="101.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="297"/>
@@ -15741,43 +15747,43 @@
       <c r="C15" s="218"/>
     </row>
     <row r="16" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="440" t="s">
+      <c r="A16" s="441" t="s">
         <v>228</v>
       </c>
-      <c r="B16" s="441"/>
-      <c r="C16" s="441"/>
-      <c r="D16" s="441"/>
-      <c r="E16" s="442"/>
+      <c r="B16" s="442"/>
+      <c r="C16" s="442"/>
+      <c r="D16" s="442"/>
+      <c r="E16" s="443"/>
       <c r="G16" s="236" t="s">
         <v>499</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="443" t="s">
+      <c r="A17" s="444" t="s">
         <v>229</v>
       </c>
-      <c r="B17" s="444"/>
-      <c r="C17" s="444"/>
-      <c r="D17" s="444"/>
-      <c r="E17" s="445"/>
+      <c r="B17" s="445"/>
+      <c r="C17" s="445"/>
+      <c r="D17" s="445"/>
+      <c r="E17" s="446"/>
     </row>
     <row r="18" spans="1:8" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="437" t="s">
+      <c r="A18" s="438" t="s">
         <v>230</v>
       </c>
-      <c r="B18" s="438"/>
-      <c r="C18" s="438"/>
-      <c r="D18" s="438"/>
-      <c r="E18" s="439"/>
+      <c r="B18" s="439"/>
+      <c r="C18" s="439"/>
+      <c r="D18" s="439"/>
+      <c r="E18" s="440"/>
     </row>
     <row r="19" spans="1:8" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="440" t="s">
+      <c r="A19" s="441" t="s">
         <v>231</v>
       </c>
-      <c r="B19" s="441"/>
-      <c r="C19" s="441"/>
-      <c r="D19" s="441"/>
-      <c r="E19" s="442"/>
+      <c r="B19" s="442"/>
+      <c r="C19" s="442"/>
+      <c r="D19" s="442"/>
+      <c r="E19" s="443"/>
     </row>
     <row r="20" spans="1:8" ht="105" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="237"/>
@@ -15794,13 +15800,13 @@
       <c r="E21" s="241"/>
     </row>
     <row r="22" spans="1:8" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="437" t="s">
+      <c r="A22" s="438" t="s">
         <v>232</v>
       </c>
-      <c r="B22" s="438"/>
-      <c r="C22" s="438"/>
-      <c r="D22" s="438"/>
-      <c r="E22" s="439"/>
+      <c r="B22" s="439"/>
+      <c r="C22" s="439"/>
+      <c r="D22" s="439"/>
+      <c r="E22" s="440"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="36" t="s">
@@ -26100,209 +26106,209 @@
       <c r="EB10" s="23"/>
     </row>
     <row r="11" spans="1:156" x14ac:dyDescent="0.25">
-      <c r="B11" s="454" t="s">
+      <c r="B11" s="455" t="s">
         <v>600</v>
       </c>
-      <c r="C11" s="455"/>
-      <c r="D11" s="455"/>
-      <c r="E11" s="455"/>
-      <c r="F11" s="456"/>
+      <c r="C11" s="456"/>
+      <c r="D11" s="456"/>
+      <c r="E11" s="456"/>
+      <c r="F11" s="457"/>
       <c r="G11" s="23"/>
-      <c r="H11" s="454" t="s">
+      <c r="H11" s="455" t="s">
         <v>601</v>
       </c>
-      <c r="I11" s="455"/>
-      <c r="J11" s="455"/>
-      <c r="K11" s="455"/>
-      <c r="L11" s="456"/>
+      <c r="I11" s="456"/>
+      <c r="J11" s="456"/>
+      <c r="K11" s="456"/>
+      <c r="L11" s="457"/>
       <c r="M11" s="23"/>
-      <c r="N11" s="454" t="s">
+      <c r="N11" s="455" t="s">
         <v>602</v>
       </c>
-      <c r="O11" s="455"/>
-      <c r="P11" s="455"/>
-      <c r="Q11" s="455"/>
-      <c r="R11" s="456"/>
+      <c r="O11" s="456"/>
+      <c r="P11" s="456"/>
+      <c r="Q11" s="456"/>
+      <c r="R11" s="457"/>
       <c r="S11" s="23"/>
-      <c r="T11" s="454" t="s">
+      <c r="T11" s="455" t="s">
         <v>603</v>
       </c>
-      <c r="U11" s="455"/>
-      <c r="V11" s="455"/>
-      <c r="W11" s="455"/>
-      <c r="X11" s="456"/>
+      <c r="U11" s="456"/>
+      <c r="V11" s="456"/>
+      <c r="W11" s="456"/>
+      <c r="X11" s="457"/>
       <c r="Y11" s="23"/>
-      <c r="Z11" s="454" t="s">
+      <c r="Z11" s="455" t="s">
         <v>604</v>
       </c>
-      <c r="AA11" s="455"/>
-      <c r="AB11" s="455"/>
-      <c r="AC11" s="455"/>
-      <c r="AD11" s="456"/>
+      <c r="AA11" s="456"/>
+      <c r="AB11" s="456"/>
+      <c r="AC11" s="456"/>
+      <c r="AD11" s="457"/>
       <c r="AE11" s="23"/>
-      <c r="AF11" s="454" t="s">
+      <c r="AF11" s="455" t="s">
         <v>605</v>
       </c>
-      <c r="AG11" s="455"/>
-      <c r="AH11" s="455"/>
-      <c r="AI11" s="455"/>
-      <c r="AJ11" s="456"/>
+      <c r="AG11" s="456"/>
+      <c r="AH11" s="456"/>
+      <c r="AI11" s="456"/>
+      <c r="AJ11" s="457"/>
       <c r="AK11" s="23"/>
-      <c r="AL11" s="454" t="s">
+      <c r="AL11" s="455" t="s">
         <v>606</v>
       </c>
-      <c r="AM11" s="455"/>
-      <c r="AN11" s="455"/>
-      <c r="AO11" s="455"/>
-      <c r="AP11" s="456"/>
+      <c r="AM11" s="456"/>
+      <c r="AN11" s="456"/>
+      <c r="AO11" s="456"/>
+      <c r="AP11" s="457"/>
       <c r="AQ11" s="23"/>
-      <c r="AR11" s="454" t="s">
+      <c r="AR11" s="455" t="s">
         <v>607</v>
       </c>
-      <c r="AS11" s="455"/>
-      <c r="AT11" s="455"/>
-      <c r="AU11" s="455"/>
-      <c r="AV11" s="456"/>
+      <c r="AS11" s="456"/>
+      <c r="AT11" s="456"/>
+      <c r="AU11" s="456"/>
+      <c r="AV11" s="457"/>
       <c r="AW11" s="23"/>
-      <c r="AX11" s="454" t="s">
+      <c r="AX11" s="455" t="s">
         <v>608</v>
       </c>
-      <c r="AY11" s="455"/>
-      <c r="AZ11" s="455"/>
-      <c r="BA11" s="455"/>
-      <c r="BB11" s="456"/>
+      <c r="AY11" s="456"/>
+      <c r="AZ11" s="456"/>
+      <c r="BA11" s="456"/>
+      <c r="BB11" s="457"/>
       <c r="BC11" s="23"/>
-      <c r="BD11" s="454" t="s">
+      <c r="BD11" s="455" t="s">
         <v>609</v>
       </c>
-      <c r="BE11" s="455"/>
-      <c r="BF11" s="455"/>
-      <c r="BG11" s="455"/>
-      <c r="BH11" s="456"/>
+      <c r="BE11" s="456"/>
+      <c r="BF11" s="456"/>
+      <c r="BG11" s="456"/>
+      <c r="BH11" s="457"/>
       <c r="BI11" s="23"/>
-      <c r="BJ11" s="454" t="s">
+      <c r="BJ11" s="455" t="s">
         <v>610</v>
       </c>
-      <c r="BK11" s="455"/>
-      <c r="BL11" s="455"/>
-      <c r="BM11" s="455"/>
-      <c r="BN11" s="456"/>
+      <c r="BK11" s="456"/>
+      <c r="BL11" s="456"/>
+      <c r="BM11" s="456"/>
+      <c r="BN11" s="457"/>
       <c r="BO11" s="23"/>
-      <c r="BP11" s="454" t="s">
+      <c r="BP11" s="455" t="s">
         <v>611</v>
       </c>
-      <c r="BQ11" s="455"/>
-      <c r="BR11" s="455"/>
-      <c r="BS11" s="455"/>
-      <c r="BT11" s="456"/>
+      <c r="BQ11" s="456"/>
+      <c r="BR11" s="456"/>
+      <c r="BS11" s="456"/>
+      <c r="BT11" s="457"/>
       <c r="BU11" s="23"/>
-      <c r="BV11" s="454" t="s">
+      <c r="BV11" s="455" t="s">
         <v>612</v>
       </c>
-      <c r="BW11" s="455"/>
-      <c r="BX11" s="455"/>
-      <c r="BY11" s="455"/>
-      <c r="BZ11" s="456"/>
+      <c r="BW11" s="456"/>
+      <c r="BX11" s="456"/>
+      <c r="BY11" s="456"/>
+      <c r="BZ11" s="457"/>
       <c r="CA11" s="23"/>
-      <c r="CB11" s="454" t="s">
+      <c r="CB11" s="455" t="s">
         <v>613</v>
       </c>
-      <c r="CC11" s="455"/>
-      <c r="CD11" s="455"/>
-      <c r="CE11" s="455"/>
-      <c r="CF11" s="456"/>
+      <c r="CC11" s="456"/>
+      <c r="CD11" s="456"/>
+      <c r="CE11" s="456"/>
+      <c r="CF11" s="457"/>
       <c r="CG11" s="23"/>
-      <c r="CH11" s="454" t="s">
+      <c r="CH11" s="455" t="s">
         <v>614</v>
       </c>
-      <c r="CI11" s="455"/>
-      <c r="CJ11" s="455"/>
-      <c r="CK11" s="455"/>
-      <c r="CL11" s="456"/>
+      <c r="CI11" s="456"/>
+      <c r="CJ11" s="456"/>
+      <c r="CK11" s="456"/>
+      <c r="CL11" s="457"/>
       <c r="CM11" s="23"/>
-      <c r="CN11" s="454" t="s">
+      <c r="CN11" s="455" t="s">
         <v>615</v>
       </c>
-      <c r="CO11" s="455"/>
-      <c r="CP11" s="455"/>
-      <c r="CQ11" s="455"/>
-      <c r="CR11" s="456"/>
+      <c r="CO11" s="456"/>
+      <c r="CP11" s="456"/>
+      <c r="CQ11" s="456"/>
+      <c r="CR11" s="457"/>
       <c r="CS11" s="23"/>
-      <c r="CT11" s="454" t="s">
+      <c r="CT11" s="455" t="s">
         <v>616</v>
       </c>
-      <c r="CU11" s="455"/>
-      <c r="CV11" s="455"/>
-      <c r="CW11" s="455"/>
-      <c r="CX11" s="456"/>
+      <c r="CU11" s="456"/>
+      <c r="CV11" s="456"/>
+      <c r="CW11" s="456"/>
+      <c r="CX11" s="457"/>
       <c r="CY11" s="23"/>
-      <c r="CZ11" s="454" t="s">
+      <c r="CZ11" s="455" t="s">
         <v>617</v>
       </c>
-      <c r="DA11" s="455"/>
-      <c r="DB11" s="455"/>
-      <c r="DC11" s="455"/>
-      <c r="DD11" s="456"/>
+      <c r="DA11" s="456"/>
+      <c r="DB11" s="456"/>
+      <c r="DC11" s="456"/>
+      <c r="DD11" s="457"/>
       <c r="DE11" s="23"/>
-      <c r="DF11" s="454" t="s">
+      <c r="DF11" s="455" t="s">
         <v>618</v>
       </c>
-      <c r="DG11" s="455"/>
-      <c r="DH11" s="455"/>
-      <c r="DI11" s="455"/>
-      <c r="DJ11" s="456"/>
+      <c r="DG11" s="456"/>
+      <c r="DH11" s="456"/>
+      <c r="DI11" s="456"/>
+      <c r="DJ11" s="457"/>
       <c r="DK11" s="23"/>
-      <c r="DL11" s="454" t="s">
+      <c r="DL11" s="455" t="s">
         <v>619</v>
       </c>
-      <c r="DM11" s="455"/>
-      <c r="DN11" s="455"/>
-      <c r="DO11" s="455"/>
-      <c r="DP11" s="456"/>
+      <c r="DM11" s="456"/>
+      <c r="DN11" s="456"/>
+      <c r="DO11" s="456"/>
+      <c r="DP11" s="457"/>
       <c r="DQ11" s="23"/>
-      <c r="DR11" s="454" t="s">
+      <c r="DR11" s="455" t="s">
         <v>620</v>
       </c>
-      <c r="DS11" s="455"/>
-      <c r="DT11" s="455"/>
-      <c r="DU11" s="455"/>
-      <c r="DV11" s="456"/>
+      <c r="DS11" s="456"/>
+      <c r="DT11" s="456"/>
+      <c r="DU11" s="456"/>
+      <c r="DV11" s="457"/>
       <c r="DW11" s="23"/>
-      <c r="DX11" s="454" t="s">
+      <c r="DX11" s="455" t="s">
         <v>621</v>
       </c>
-      <c r="DY11" s="455"/>
-      <c r="DZ11" s="455"/>
-      <c r="EA11" s="455"/>
-      <c r="EB11" s="456"/>
-      <c r="ED11" s="454" t="s">
+      <c r="DY11" s="456"/>
+      <c r="DZ11" s="456"/>
+      <c r="EA11" s="456"/>
+      <c r="EB11" s="457"/>
+      <c r="ED11" s="455" t="s">
         <v>622</v>
       </c>
-      <c r="EE11" s="455"/>
-      <c r="EF11" s="455"/>
-      <c r="EG11" s="455"/>
-      <c r="EH11" s="456"/>
-      <c r="EJ11" s="454" t="s">
+      <c r="EE11" s="456"/>
+      <c r="EF11" s="456"/>
+      <c r="EG11" s="456"/>
+      <c r="EH11" s="457"/>
+      <c r="EJ11" s="455" t="s">
         <v>623</v>
       </c>
-      <c r="EK11" s="455"/>
-      <c r="EL11" s="455"/>
-      <c r="EM11" s="455"/>
-      <c r="EN11" s="456"/>
-      <c r="EP11" s="454" t="s">
+      <c r="EK11" s="456"/>
+      <c r="EL11" s="456"/>
+      <c r="EM11" s="456"/>
+      <c r="EN11" s="457"/>
+      <c r="EP11" s="455" t="s">
         <v>624</v>
       </c>
-      <c r="EQ11" s="455"/>
-      <c r="ER11" s="455"/>
-      <c r="ES11" s="455"/>
-      <c r="ET11" s="456"/>
-      <c r="EV11" s="454" t="s">
+      <c r="EQ11" s="456"/>
+      <c r="ER11" s="456"/>
+      <c r="ES11" s="456"/>
+      <c r="ET11" s="457"/>
+      <c r="EV11" s="455" t="s">
         <v>625</v>
       </c>
-      <c r="EW11" s="455"/>
-      <c r="EX11" s="455"/>
-      <c r="EY11" s="455"/>
-      <c r="EZ11" s="456"/>
+      <c r="EW11" s="456"/>
+      <c r="EX11" s="456"/>
+      <c r="EY11" s="456"/>
+      <c r="EZ11" s="457"/>
     </row>
     <row r="12" spans="1:156" x14ac:dyDescent="0.25">
       <c r="B12" s="23"/>
@@ -39492,11 +39498,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="457"/>
-      <c r="B1" s="457"/>
-      <c r="C1" s="457"/>
-      <c r="D1" s="457"/>
-      <c r="E1" s="457"/>
+      <c r="A1" s="458"/>
+      <c r="B1" s="458"/>
+      <c r="C1" s="458"/>
+      <c r="D1" s="458"/>
+      <c r="E1" s="458"/>
       <c r="F1" s="44"/>
       <c r="G1" s="44"/>
       <c r="H1" s="44"/>
@@ -39511,13 +39517,13 @@
       <c r="Q1" s="44"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="457" t="s">
+      <c r="A2" s="458" t="s">
         <v>589</v>
       </c>
-      <c r="B2" s="457"/>
-      <c r="C2" s="457"/>
-      <c r="D2" s="457"/>
-      <c r="E2" s="457"/>
+      <c r="B2" s="458"/>
+      <c r="C2" s="458"/>
+      <c r="D2" s="458"/>
+      <c r="E2" s="458"/>
       <c r="F2" s="44"/>
       <c r="G2" s="44"/>
       <c r="H2" s="44"/>
@@ -39532,13 +39538,13 @@
       <c r="Q2" s="44"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="457" t="s">
+      <c r="A3" s="458" t="s">
         <v>590</v>
       </c>
-      <c r="B3" s="457"/>
-      <c r="C3" s="457"/>
-      <c r="D3" s="457"/>
-      <c r="E3" s="457"/>
+      <c r="B3" s="458"/>
+      <c r="C3" s="458"/>
+      <c r="D3" s="458"/>
+      <c r="E3" s="458"/>
       <c r="F3" s="44"/>
       <c r="G3" s="44"/>
       <c r="H3" s="44"/>
@@ -39553,406 +39559,406 @@
       <c r="Q3" s="44"/>
     </row>
     <row r="4" spans="1:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="457" t="s">
+      <c r="A4" s="458" t="s">
         <v>636</v>
       </c>
-      <c r="B4" s="457"/>
-      <c r="C4" s="457"/>
+      <c r="B4" s="458"/>
+      <c r="C4" s="458"/>
       <c r="D4" s="45"/>
       <c r="E4" s="45"/>
     </row>
     <row r="5" spans="1:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="457" t="s">
+      <c r="A5" s="458" t="s">
         <v>637</v>
       </c>
-      <c r="B5" s="457"/>
-      <c r="C5" s="457"/>
-      <c r="D5" s="458" t="s">
+      <c r="B5" s="458"/>
+      <c r="C5" s="458"/>
+      <c r="D5" s="459" t="s">
         <v>638</v>
       </c>
-      <c r="E5" s="458"/>
+      <c r="E5" s="459"/>
     </row>
     <row r="6" spans="1:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="459" t="s">
+      <c r="A6" s="460" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="460"/>
-      <c r="C6" s="460"/>
-      <c r="D6" s="462" t="s">
+      <c r="B6" s="461"/>
+      <c r="C6" s="461"/>
+      <c r="D6" s="463" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="463"/>
+      <c r="E6" s="464"/>
     </row>
     <row r="7" spans="1:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="457" t="s">
+      <c r="A7" s="458" t="s">
         <v>639</v>
       </c>
-      <c r="B7" s="457"/>
-      <c r="C7" s="457"/>
-      <c r="D7" s="461"/>
-      <c r="E7" s="461"/>
+      <c r="B7" s="458"/>
+      <c r="C7" s="458"/>
+      <c r="D7" s="462"/>
+      <c r="E7" s="462"/>
     </row>
     <row r="8" spans="1:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="459" t="s">
+      <c r="A8" s="460" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="460"/>
-      <c r="C8" s="460"/>
-      <c r="D8" s="462" t="s">
+      <c r="B8" s="461"/>
+      <c r="C8" s="461"/>
+      <c r="D8" s="463" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="463"/>
+      <c r="E8" s="464"/>
     </row>
     <row r="9" spans="1:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="457" t="s">
+      <c r="A9" s="458" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="457"/>
-      <c r="C9" s="457"/>
-      <c r="D9" s="464"/>
-      <c r="E9" s="464"/>
+      <c r="B9" s="458"/>
+      <c r="C9" s="458"/>
+      <c r="D9" s="465"/>
+      <c r="E9" s="465"/>
     </row>
     <row r="10" spans="1:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="465" t="s">
+      <c r="A10" s="466" t="s">
         <v>640</v>
       </c>
-      <c r="B10" s="466"/>
-      <c r="C10" s="466"/>
-      <c r="D10" s="470" t="s">
+      <c r="B10" s="467"/>
+      <c r="C10" s="467"/>
+      <c r="D10" s="471" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="471"/>
+      <c r="E10" s="472"/>
     </row>
     <row r="11" spans="1:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="467" t="s">
+      <c r="A11" s="468" t="s">
         <v>641</v>
       </c>
-      <c r="B11" s="464"/>
-      <c r="C11" s="464"/>
-      <c r="D11" s="461" t="s">
+      <c r="B11" s="465"/>
+      <c r="C11" s="465"/>
+      <c r="D11" s="462" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="472"/>
+      <c r="E11" s="473"/>
     </row>
     <row r="12" spans="1:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="468" t="s">
+      <c r="A12" s="469" t="s">
         <v>642</v>
       </c>
-      <c r="B12" s="469"/>
-      <c r="C12" s="469"/>
-      <c r="D12" s="473" t="s">
+      <c r="B12" s="470"/>
+      <c r="C12" s="470"/>
+      <c r="D12" s="474" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="474"/>
+      <c r="E12" s="475"/>
     </row>
     <row r="13" spans="1:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="457" t="s">
+      <c r="A13" s="458" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="457"/>
-      <c r="C13" s="457"/>
-      <c r="D13" s="464"/>
-      <c r="E13" s="464"/>
+      <c r="B13" s="458"/>
+      <c r="C13" s="458"/>
+      <c r="D13" s="465"/>
+      <c r="E13" s="465"/>
     </row>
     <row r="14" spans="1:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="475" t="s">
+      <c r="A14" s="476" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="470"/>
-      <c r="C14" s="470"/>
-      <c r="D14" s="470" t="s">
+      <c r="B14" s="471"/>
+      <c r="C14" s="471"/>
+      <c r="D14" s="471" t="s">
         <v>40</v>
       </c>
-      <c r="E14" s="471"/>
+      <c r="E14" s="472"/>
     </row>
     <row r="15" spans="1:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="476" t="s">
+      <c r="A15" s="477" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="461"/>
-      <c r="C15" s="461"/>
-      <c r="D15" s="461" t="s">
+      <c r="B15" s="462"/>
+      <c r="C15" s="462"/>
+      <c r="D15" s="462" t="s">
         <v>42</v>
       </c>
-      <c r="E15" s="472"/>
+      <c r="E15" s="473"/>
     </row>
     <row r="16" spans="1:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="477" t="s">
+      <c r="A16" s="478" t="s">
         <v>43</v>
       </c>
-      <c r="B16" s="473"/>
-      <c r="C16" s="473"/>
-      <c r="D16" s="473" t="s">
+      <c r="B16" s="474"/>
+      <c r="C16" s="474"/>
+      <c r="D16" s="474" t="s">
         <v>643</v>
       </c>
-      <c r="E16" s="474"/>
+      <c r="E16" s="475"/>
     </row>
     <row r="17" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="457" t="s">
+      <c r="A17" s="458" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="457"/>
-      <c r="C17" s="457"/>
-      <c r="D17" s="464"/>
-      <c r="E17" s="464"/>
+      <c r="B17" s="458"/>
+      <c r="C17" s="458"/>
+      <c r="D17" s="465"/>
+      <c r="E17" s="465"/>
     </row>
     <row r="18" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="475" t="s">
+      <c r="A18" s="476" t="s">
         <v>46</v>
       </c>
-      <c r="B18" s="470"/>
-      <c r="C18" s="470"/>
-      <c r="D18" s="470" t="s">
+      <c r="B18" s="471"/>
+      <c r="C18" s="471"/>
+      <c r="D18" s="471" t="s">
         <v>47</v>
       </c>
-      <c r="E18" s="471"/>
+      <c r="E18" s="472"/>
     </row>
     <row r="19" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="477" t="s">
+      <c r="A19" s="478" t="s">
         <v>48</v>
       </c>
-      <c r="B19" s="473"/>
-      <c r="C19" s="473"/>
-      <c r="D19" s="473" t="s">
+      <c r="B19" s="474"/>
+      <c r="C19" s="474"/>
+      <c r="D19" s="474" t="s">
         <v>49</v>
       </c>
-      <c r="E19" s="474"/>
+      <c r="E19" s="475"/>
     </row>
     <row r="20" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="457" t="s">
+      <c r="A20" s="458" t="s">
         <v>50</v>
       </c>
-      <c r="B20" s="457"/>
-      <c r="C20" s="457"/>
-      <c r="D20" s="464"/>
-      <c r="E20" s="464"/>
+      <c r="B20" s="458"/>
+      <c r="C20" s="458"/>
+      <c r="D20" s="465"/>
+      <c r="E20" s="465"/>
     </row>
     <row r="21" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="475" t="s">
+      <c r="A21" s="476" t="s">
         <v>46</v>
       </c>
-      <c r="B21" s="470"/>
-      <c r="C21" s="470"/>
-      <c r="D21" s="470" t="s">
+      <c r="B21" s="471"/>
+      <c r="C21" s="471"/>
+      <c r="D21" s="471" t="s">
         <v>51</v>
       </c>
-      <c r="E21" s="471"/>
+      <c r="E21" s="472"/>
     </row>
     <row r="22" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="476" t="s">
+      <c r="A22" s="477" t="s">
         <v>52</v>
       </c>
-      <c r="B22" s="461"/>
-      <c r="C22" s="461"/>
-      <c r="D22" s="461" t="s">
+      <c r="B22" s="462"/>
+      <c r="C22" s="462"/>
+      <c r="D22" s="462" t="s">
         <v>53</v>
       </c>
-      <c r="E22" s="472"/>
+      <c r="E22" s="473"/>
     </row>
     <row r="23" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="477" t="s">
+      <c r="A23" s="478" t="s">
         <v>54</v>
       </c>
-      <c r="B23" s="473"/>
-      <c r="C23" s="473"/>
-      <c r="D23" s="473" t="s">
+      <c r="B23" s="474"/>
+      <c r="C23" s="474"/>
+      <c r="D23" s="474" t="s">
         <v>55</v>
       </c>
-      <c r="E23" s="474"/>
+      <c r="E23" s="475"/>
     </row>
     <row r="24" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="457" t="s">
+      <c r="A24" s="458" t="s">
         <v>56</v>
       </c>
-      <c r="B24" s="457"/>
-      <c r="C24" s="457"/>
-      <c r="D24" s="464"/>
-      <c r="E24" s="464"/>
+      <c r="B24" s="458"/>
+      <c r="C24" s="458"/>
+      <c r="D24" s="465"/>
+      <c r="E24" s="465"/>
     </row>
     <row r="25" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="475" t="s">
+      <c r="A25" s="476" t="s">
         <v>57</v>
       </c>
-      <c r="B25" s="470"/>
-      <c r="C25" s="470"/>
-      <c r="D25" s="470" t="s">
+      <c r="B25" s="471"/>
+      <c r="C25" s="471"/>
+      <c r="D25" s="471" t="s">
         <v>42</v>
       </c>
-      <c r="E25" s="471"/>
+      <c r="E25" s="472"/>
     </row>
     <row r="26" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="476" t="s">
+      <c r="A26" s="477" t="s">
         <v>58</v>
       </c>
-      <c r="B26" s="461"/>
-      <c r="C26" s="461"/>
-      <c r="D26" s="461" t="s">
+      <c r="B26" s="462"/>
+      <c r="C26" s="462"/>
+      <c r="D26" s="462" t="s">
         <v>59</v>
       </c>
-      <c r="E26" s="472"/>
+      <c r="E26" s="473"/>
     </row>
     <row r="27" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="477" t="s">
+      <c r="A27" s="478" t="s">
         <v>60</v>
       </c>
-      <c r="B27" s="473"/>
-      <c r="C27" s="473"/>
-      <c r="D27" s="473" t="s">
+      <c r="B27" s="474"/>
+      <c r="C27" s="474"/>
+      <c r="D27" s="474" t="s">
         <v>55</v>
       </c>
-      <c r="E27" s="474"/>
+      <c r="E27" s="475"/>
     </row>
     <row r="28" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="457" t="s">
+      <c r="A28" s="458" t="s">
         <v>61</v>
       </c>
-      <c r="B28" s="457"/>
-      <c r="C28" s="457"/>
-      <c r="D28" s="464"/>
-      <c r="E28" s="464"/>
+      <c r="B28" s="458"/>
+      <c r="C28" s="458"/>
+      <c r="D28" s="465"/>
+      <c r="E28" s="465"/>
     </row>
     <row r="29" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="480" t="s">
+      <c r="A29" s="481" t="s">
         <v>62</v>
       </c>
-      <c r="B29" s="462"/>
-      <c r="C29" s="462"/>
-      <c r="D29" s="462" t="s">
+      <c r="B29" s="463"/>
+      <c r="C29" s="463"/>
+      <c r="D29" s="463" t="s">
         <v>63</v>
       </c>
-      <c r="E29" s="463"/>
+      <c r="E29" s="464"/>
     </row>
     <row r="30" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="457" t="s">
+      <c r="A30" s="458" t="s">
         <v>65</v>
       </c>
-      <c r="B30" s="457"/>
-      <c r="C30" s="457"/>
-      <c r="D30" s="461"/>
-      <c r="E30" s="461"/>
+      <c r="B30" s="458"/>
+      <c r="C30" s="458"/>
+      <c r="D30" s="462"/>
+      <c r="E30" s="462"/>
     </row>
     <row r="31" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="487" t="s">
+      <c r="A31" s="488" t="s">
         <v>644</v>
       </c>
-      <c r="B31" s="490">
+      <c r="B31" s="491">
         <v>0</v>
       </c>
-      <c r="C31" s="490"/>
-      <c r="D31" s="481">
+      <c r="C31" s="491"/>
+      <c r="D31" s="482">
         <v>1</v>
       </c>
-      <c r="E31" s="482"/>
+      <c r="E31" s="483"/>
     </row>
     <row r="32" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="488"/>
-      <c r="B32" s="485">
+      <c r="A32" s="489"/>
+      <c r="B32" s="486">
         <v>0.05</v>
       </c>
-      <c r="C32" s="485"/>
-      <c r="D32" s="478" t="s">
+      <c r="C32" s="486"/>
+      <c r="D32" s="479" t="s">
         <v>66</v>
       </c>
-      <c r="E32" s="479"/>
+      <c r="E32" s="480"/>
     </row>
     <row r="33" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="488"/>
-      <c r="B33" s="485">
+      <c r="A33" s="489"/>
+      <c r="B33" s="486">
         <v>0.1</v>
       </c>
-      <c r="C33" s="485"/>
-      <c r="D33" s="478" t="s">
+      <c r="C33" s="486"/>
+      <c r="D33" s="479" t="s">
         <v>67</v>
       </c>
-      <c r="E33" s="479"/>
+      <c r="E33" s="480"/>
     </row>
     <row r="34" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="488"/>
-      <c r="B34" s="485">
+      <c r="A34" s="489"/>
+      <c r="B34" s="486">
         <v>0.15</v>
       </c>
-      <c r="C34" s="485"/>
-      <c r="D34" s="478" t="s">
+      <c r="C34" s="486"/>
+      <c r="D34" s="479" t="s">
         <v>68</v>
       </c>
-      <c r="E34" s="479"/>
+      <c r="E34" s="480"/>
     </row>
     <row r="35" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="488"/>
-      <c r="B35" s="485">
+      <c r="A35" s="489"/>
+      <c r="B35" s="486">
         <v>0.2</v>
       </c>
-      <c r="C35" s="485"/>
-      <c r="D35" s="478" t="s">
+      <c r="C35" s="486"/>
+      <c r="D35" s="479" t="s">
         <v>69</v>
       </c>
-      <c r="E35" s="479"/>
+      <c r="E35" s="480"/>
     </row>
     <row r="36" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="488"/>
-      <c r="B36" s="485">
+      <c r="A36" s="489"/>
+      <c r="B36" s="486">
         <v>0.25</v>
       </c>
-      <c r="C36" s="485"/>
-      <c r="D36" s="478" t="s">
+      <c r="C36" s="486"/>
+      <c r="D36" s="479" t="s">
         <v>70</v>
       </c>
-      <c r="E36" s="479"/>
+      <c r="E36" s="480"/>
     </row>
     <row r="37" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="488"/>
-      <c r="B37" s="485">
+      <c r="A37" s="489"/>
+      <c r="B37" s="486">
         <v>0.3</v>
       </c>
-      <c r="C37" s="485"/>
-      <c r="D37" s="478" t="s">
+      <c r="C37" s="486"/>
+      <c r="D37" s="479" t="s">
         <v>71</v>
       </c>
-      <c r="E37" s="479"/>
+      <c r="E37" s="480"/>
     </row>
     <row r="38" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="488"/>
-      <c r="B38" s="485">
+      <c r="A38" s="489"/>
+      <c r="B38" s="486">
         <v>0.35</v>
       </c>
-      <c r="C38" s="485"/>
-      <c r="D38" s="478" t="s">
+      <c r="C38" s="486"/>
+      <c r="D38" s="479" t="s">
         <v>72</v>
       </c>
-      <c r="E38" s="479"/>
+      <c r="E38" s="480"/>
     </row>
     <row r="39" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="488"/>
-      <c r="B39" s="485">
+      <c r="A39" s="489"/>
+      <c r="B39" s="486">
         <v>0.4</v>
       </c>
-      <c r="C39" s="485"/>
-      <c r="D39" s="478" t="s">
+      <c r="C39" s="486"/>
+      <c r="D39" s="479" t="s">
         <v>73</v>
       </c>
-      <c r="E39" s="479"/>
+      <c r="E39" s="480"/>
     </row>
     <row r="40" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="488"/>
-      <c r="B40" s="485">
+      <c r="A40" s="489"/>
+      <c r="B40" s="486">
         <v>0.45</v>
       </c>
-      <c r="C40" s="485"/>
-      <c r="D40" s="478" t="s">
+      <c r="C40" s="486"/>
+      <c r="D40" s="479" t="s">
         <v>74</v>
       </c>
-      <c r="E40" s="479"/>
+      <c r="E40" s="480"/>
     </row>
     <row r="41" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="489"/>
-      <c r="B41" s="486">
+      <c r="A41" s="490"/>
+      <c r="B41" s="487">
         <v>0.5</v>
       </c>
-      <c r="C41" s="486"/>
-      <c r="D41" s="483" t="s">
+      <c r="C41" s="487"/>
+      <c r="D41" s="484" t="s">
         <v>75</v>
       </c>
-      <c r="E41" s="484"/>
+      <c r="E41" s="485"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B42" s="46"/>
@@ -40061,44 +40067,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="498"/>
-      <c r="B1" s="498"/>
-      <c r="C1" s="498"/>
-      <c r="D1" s="498"/>
+      <c r="A1" s="499"/>
+      <c r="B1" s="499"/>
+      <c r="C1" s="499"/>
+      <c r="D1" s="499"/>
     </row>
     <row r="2" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="498" t="s">
+      <c r="A2" s="499" t="s">
         <v>589</v>
       </c>
-      <c r="B2" s="498"/>
-      <c r="C2" s="498"/>
-      <c r="D2" s="498"/>
+      <c r="B2" s="499"/>
+      <c r="C2" s="499"/>
+      <c r="D2" s="499"/>
     </row>
     <row r="3" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="498" t="s">
+      <c r="A3" s="499" t="s">
         <v>590</v>
       </c>
-      <c r="B3" s="498"/>
-      <c r="C3" s="498"/>
-      <c r="D3" s="498"/>
+      <c r="B3" s="499"/>
+      <c r="C3" s="499"/>
+      <c r="D3" s="499"/>
     </row>
     <row r="4" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="499" t="s">
+      <c r="A4" s="500" t="s">
         <v>636</v>
       </c>
-      <c r="B4" s="499"/>
-      <c r="C4" s="499"/>
-      <c r="D4" s="499"/>
+      <c r="B4" s="500"/>
+      <c r="C4" s="500"/>
+      <c r="D4" s="500"/>
     </row>
     <row r="5" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="491" t="s">
+      <c r="A5" s="492" t="s">
         <v>77</v>
       </c>
-      <c r="B5" s="491"/>
-      <c r="C5" s="500" t="s">
+      <c r="B5" s="492"/>
+      <c r="C5" s="501" t="s">
         <v>638</v>
       </c>
-      <c r="D5" s="500"/>
+      <c r="D5" s="501"/>
     </row>
     <row r="6" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="83" t="s">
@@ -40171,14 +40177,14 @@
       <c r="D12" s="74"/>
     </row>
     <row r="13" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="491" t="s">
+      <c r="A13" s="492" t="s">
         <v>90</v>
       </c>
-      <c r="B13" s="491"/>
-      <c r="C13" s="491" t="s">
+      <c r="B13" s="492"/>
+      <c r="C13" s="492" t="s">
         <v>645</v>
       </c>
-      <c r="D13" s="491"/>
+      <c r="D13" s="492"/>
     </row>
     <row r="14" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="83" t="s">
@@ -40211,234 +40217,234 @@
       <c r="D16" s="74"/>
     </row>
     <row r="17" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="491" t="s">
+      <c r="A17" s="492" t="s">
         <v>646</v>
       </c>
-      <c r="B17" s="491"/>
-      <c r="C17" s="491" t="s">
+      <c r="B17" s="492"/>
+      <c r="C17" s="492" t="s">
         <v>638</v>
       </c>
-      <c r="D17" s="491"/>
+      <c r="D17" s="492"/>
     </row>
     <row r="18" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="494" t="s">
+      <c r="A18" s="495" t="s">
         <v>97</v>
       </c>
-      <c r="B18" s="495"/>
-      <c r="C18" s="502" t="s">
+      <c r="B18" s="496"/>
+      <c r="C18" s="503" t="s">
         <v>98</v>
       </c>
-      <c r="D18" s="503"/>
+      <c r="D18" s="504"/>
     </row>
     <row r="19" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="492" t="s">
+      <c r="A19" s="493" t="s">
         <v>99</v>
       </c>
-      <c r="B19" s="493"/>
-      <c r="C19" s="501" t="s">
+      <c r="B19" s="494"/>
+      <c r="C19" s="502" t="s">
         <v>100</v>
       </c>
-      <c r="D19" s="501"/>
+      <c r="D19" s="502"/>
     </row>
     <row r="20" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="492" t="s">
+      <c r="A20" s="493" t="s">
         <v>101</v>
       </c>
-      <c r="B20" s="493"/>
-      <c r="C20" s="501" t="s">
+      <c r="B20" s="494"/>
+      <c r="C20" s="502" t="s">
         <v>102</v>
       </c>
-      <c r="D20" s="501"/>
+      <c r="D20" s="502"/>
     </row>
     <row r="21" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="492" t="s">
+      <c r="A21" s="493" t="s">
         <v>103</v>
       </c>
-      <c r="B21" s="493"/>
-      <c r="C21" s="501" t="s">
+      <c r="B21" s="494"/>
+      <c r="C21" s="502" t="s">
         <v>98</v>
       </c>
-      <c r="D21" s="501"/>
+      <c r="D21" s="502"/>
     </row>
     <row r="22" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="492" t="s">
+      <c r="A22" s="493" t="s">
         <v>104</v>
       </c>
-      <c r="B22" s="493"/>
-      <c r="C22" s="501" t="s">
+      <c r="B22" s="494"/>
+      <c r="C22" s="502" t="s">
         <v>98</v>
       </c>
-      <c r="D22" s="501"/>
+      <c r="D22" s="502"/>
     </row>
     <row r="23" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="492" t="s">
+      <c r="A23" s="493" t="s">
         <v>105</v>
       </c>
-      <c r="B23" s="493"/>
-      <c r="C23" s="501" t="s">
+      <c r="B23" s="494"/>
+      <c r="C23" s="502" t="s">
         <v>106</v>
       </c>
-      <c r="D23" s="501"/>
+      <c r="D23" s="502"/>
     </row>
     <row r="24" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="492" t="s">
+      <c r="A24" s="493" t="s">
         <v>107</v>
       </c>
-      <c r="B24" s="493"/>
-      <c r="C24" s="501" t="s">
+      <c r="B24" s="494"/>
+      <c r="C24" s="502" t="s">
         <v>53</v>
       </c>
-      <c r="D24" s="501"/>
+      <c r="D24" s="502"/>
     </row>
     <row r="25" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="492" t="s">
+      <c r="A25" s="493" t="s">
         <v>647</v>
       </c>
-      <c r="B25" s="493"/>
-      <c r="C25" s="501" t="s">
+      <c r="B25" s="494"/>
+      <c r="C25" s="502" t="s">
         <v>109</v>
       </c>
-      <c r="D25" s="501"/>
+      <c r="D25" s="502"/>
     </row>
     <row r="26" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="492" t="s">
+      <c r="A26" s="493" t="s">
         <v>110</v>
       </c>
-      <c r="B26" s="493"/>
-      <c r="C26" s="501" t="s">
+      <c r="B26" s="494"/>
+      <c r="C26" s="502" t="s">
         <v>98</v>
       </c>
-      <c r="D26" s="501"/>
+      <c r="D26" s="502"/>
     </row>
     <row r="27" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="496" t="s">
+      <c r="A27" s="497" t="s">
         <v>111</v>
       </c>
-      <c r="B27" s="497"/>
-      <c r="C27" s="504" t="s">
+      <c r="B27" s="498"/>
+      <c r="C27" s="505" t="s">
         <v>106</v>
       </c>
-      <c r="D27" s="505"/>
+      <c r="D27" s="506"/>
     </row>
     <row r="28" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="494" t="s">
+      <c r="A28" s="495" t="s">
         <v>112</v>
       </c>
-      <c r="B28" s="495"/>
-      <c r="C28" s="502" t="s">
+      <c r="B28" s="496"/>
+      <c r="C28" s="503" t="s">
         <v>98</v>
       </c>
-      <c r="D28" s="503"/>
+      <c r="D28" s="504"/>
     </row>
     <row r="29" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="492" t="s">
+      <c r="A29" s="493" t="s">
         <v>113</v>
       </c>
-      <c r="B29" s="493"/>
-      <c r="C29" s="501" t="s">
+      <c r="B29" s="494"/>
+      <c r="C29" s="502" t="s">
         <v>98</v>
       </c>
-      <c r="D29" s="501"/>
+      <c r="D29" s="502"/>
     </row>
     <row r="30" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="492" t="s">
+      <c r="A30" s="493" t="s">
         <v>114</v>
       </c>
-      <c r="B30" s="493"/>
-      <c r="C30" s="501" t="s">
+      <c r="B30" s="494"/>
+      <c r="C30" s="502" t="s">
         <v>115</v>
       </c>
-      <c r="D30" s="501"/>
+      <c r="D30" s="502"/>
     </row>
     <row r="31" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="492" t="s">
+      <c r="A31" s="493" t="s">
         <v>116</v>
       </c>
-      <c r="B31" s="493"/>
-      <c r="C31" s="501" t="s">
+      <c r="B31" s="494"/>
+      <c r="C31" s="502" t="s">
         <v>98</v>
       </c>
-      <c r="D31" s="501"/>
+      <c r="D31" s="502"/>
     </row>
     <row r="32" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="492" t="s">
+      <c r="A32" s="493" t="s">
         <v>117</v>
       </c>
-      <c r="B32" s="493"/>
-      <c r="C32" s="501" t="s">
+      <c r="B32" s="494"/>
+      <c r="C32" s="502" t="s">
         <v>98</v>
       </c>
-      <c r="D32" s="501"/>
+      <c r="D32" s="502"/>
     </row>
     <row r="33" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="492" t="s">
+      <c r="A33" s="493" t="s">
         <v>118</v>
       </c>
-      <c r="B33" s="493"/>
-      <c r="C33" s="501" t="s">
+      <c r="B33" s="494"/>
+      <c r="C33" s="502" t="s">
         <v>119</v>
       </c>
-      <c r="D33" s="501"/>
+      <c r="D33" s="502"/>
     </row>
     <row r="34" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="492" t="s">
+      <c r="A34" s="493" t="s">
         <v>120</v>
       </c>
-      <c r="B34" s="493"/>
-      <c r="C34" s="501" t="s">
+      <c r="B34" s="494"/>
+      <c r="C34" s="502" t="s">
         <v>98</v>
       </c>
-      <c r="D34" s="501"/>
+      <c r="D34" s="502"/>
     </row>
     <row r="35" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="492" t="s">
+      <c r="A35" s="493" t="s">
         <v>648</v>
       </c>
-      <c r="B35" s="493"/>
-      <c r="C35" s="501" t="s">
+      <c r="B35" s="494"/>
+      <c r="C35" s="502" t="s">
         <v>98</v>
       </c>
-      <c r="D35" s="501"/>
+      <c r="D35" s="502"/>
     </row>
     <row r="36" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="492" t="s">
+      <c r="A36" s="493" t="s">
         <v>122</v>
       </c>
-      <c r="B36" s="493"/>
-      <c r="C36" s="501" t="s">
+      <c r="B36" s="494"/>
+      <c r="C36" s="502" t="s">
         <v>106</v>
       </c>
-      <c r="D36" s="501"/>
+      <c r="D36" s="502"/>
     </row>
     <row r="37" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="492" t="s">
+      <c r="A37" s="493" t="s">
         <v>123</v>
       </c>
-      <c r="B37" s="493"/>
-      <c r="C37" s="501" t="s">
+      <c r="B37" s="494"/>
+      <c r="C37" s="502" t="s">
         <v>98</v>
       </c>
-      <c r="D37" s="501"/>
+      <c r="D37" s="502"/>
     </row>
     <row r="38" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="492" t="s">
+      <c r="A38" s="493" t="s">
         <v>124</v>
       </c>
-      <c r="B38" s="493"/>
-      <c r="C38" s="501" t="s">
+      <c r="B38" s="494"/>
+      <c r="C38" s="502" t="s">
         <v>125</v>
       </c>
-      <c r="D38" s="501"/>
+      <c r="D38" s="502"/>
     </row>
     <row r="39" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="496" t="s">
+      <c r="A39" s="497" t="s">
         <v>126</v>
       </c>
-      <c r="B39" s="497"/>
-      <c r="C39" s="504" t="s">
+      <c r="B39" s="498"/>
+      <c r="C39" s="505" t="s">
         <v>127</v>
       </c>
-      <c r="D39" s="505"/>
+      <c r="D39" s="506"/>
     </row>
   </sheetData>
   <mergeCells count="54">
@@ -43666,56 +43672,56 @@
       </c>
     </row>
     <row r="42" spans="1:5" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="437" t="s">
+      <c r="A42" s="438" t="s">
         <v>192</v>
       </c>
-      <c r="B42" s="438"/>
-      <c r="C42" s="438"/>
-      <c r="D42" s="438"/>
-      <c r="E42" s="439"/>
+      <c r="B42" s="439"/>
+      <c r="C42" s="439"/>
+      <c r="D42" s="439"/>
+      <c r="E42" s="440"/>
     </row>
     <row r="43" spans="1:5" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="437" t="s">
+      <c r="A43" s="438" t="s">
         <v>193</v>
       </c>
-      <c r="B43" s="438"/>
-      <c r="C43" s="438"/>
-      <c r="D43" s="438"/>
-      <c r="E43" s="439"/>
+      <c r="B43" s="439"/>
+      <c r="C43" s="439"/>
+      <c r="D43" s="439"/>
+      <c r="E43" s="440"/>
     </row>
     <row r="44" spans="1:5" ht="69" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="437" t="s">
+      <c r="A44" s="438" t="s">
         <v>194</v>
       </c>
-      <c r="B44" s="438"/>
-      <c r="C44" s="438"/>
-      <c r="D44" s="438"/>
-      <c r="E44" s="439"/>
+      <c r="B44" s="439"/>
+      <c r="C44" s="439"/>
+      <c r="D44" s="439"/>
+      <c r="E44" s="440"/>
     </row>
     <row r="45" spans="1:5" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="437" t="s">
+      <c r="A45" s="438" t="s">
         <v>195</v>
       </c>
-      <c r="B45" s="438"/>
-      <c r="C45" s="438"/>
-      <c r="D45" s="438"/>
-      <c r="E45" s="439"/>
+      <c r="B45" s="439"/>
+      <c r="C45" s="439"/>
+      <c r="D45" s="439"/>
+      <c r="E45" s="440"/>
     </row>
     <row r="46" spans="1:5" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="437" t="s">
+      <c r="A46" s="438" t="s">
         <v>196</v>
       </c>
-      <c r="B46" s="438"/>
-      <c r="C46" s="438"/>
-      <c r="D46" s="438"/>
-      <c r="E46" s="439"/>
+      <c r="B46" s="439"/>
+      <c r="C46" s="439"/>
+      <c r="D46" s="439"/>
+      <c r="E46" s="440"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="436"/>
-      <c r="B47" s="436"/>
-      <c r="C47" s="436"/>
-      <c r="D47" s="436"/>
-      <c r="E47" s="436"/>
+      <c r="A47" s="437"/>
+      <c r="B47" s="437"/>
+      <c r="C47" s="437"/>
+      <c r="D47" s="437"/>
+      <c r="E47" s="437"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -43950,37 +43956,37 @@
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="407">
-        <f>IF(A6='[1]XS Rating Step B-F Inputs'!A6,0,1)</f>
+        <f>IF(A6='[2]XS Rating Step B-F Inputs'!A6,0,1)</f>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" s="407">
-        <f>IF(A7='[1]XS Rating Step B-F Inputs'!A7,0,1)</f>
+        <f>IF(A7='[2]XS Rating Step B-F Inputs'!A7,0,1)</f>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" s="407">
-        <f>IF(A8='[1]XS Rating Step B-F Inputs'!A8,0,1)</f>
+        <f>IF(A8='[2]XS Rating Step B-F Inputs'!A8,0,1)</f>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" s="407">
-        <f>IF(A9='[1]XS Rating Step B-F Inputs'!A9,0,1)</f>
+        <f>IF(A9='[2]XS Rating Step B-F Inputs'!A9,0,1)</f>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" s="407">
-        <f>IF(A10='[1]XS Rating Step B-F Inputs'!A10,0,1)</f>
+        <f>IF(A10='[2]XS Rating Step B-F Inputs'!A10,0,1)</f>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" s="407">
-        <f>IF(A11='[1]XS Rating Step B-F Inputs'!A11,0,1)</f>
+        <f>IF(A11='[2]XS Rating Step B-F Inputs'!A11,0,1)</f>
         <v>0</v>
       </c>
     </row>
@@ -43989,97 +43995,97 @@
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" s="407">
-        <f>IF(A13='[1]XS Rating Step B-F Inputs'!A13,0,1)</f>
+        <f>IF(A13='[2]XS Rating Step B-F Inputs'!A13,0,1)</f>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" s="407">
-        <f>IF(A14='[1]XS Rating Step B-F Inputs'!A14,0,1)</f>
+        <f>IF(A14='[2]XS Rating Step B-F Inputs'!A14,0,1)</f>
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" s="407">
-        <f>IF(A15='[1]XS Rating Step B-F Inputs'!A15,0,1)</f>
+        <f>IF(A15='[2]XS Rating Step B-F Inputs'!A15,0,1)</f>
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" s="407">
-        <f>IF(A16='[1]XS Rating Step B-F Inputs'!A16,0,1)</f>
+        <f>IF(A16='[2]XS Rating Step B-F Inputs'!A16,0,1)</f>
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" s="407">
-        <f>IF(A17='[1]XS Rating Step B-F Inputs'!A17,0,1)</f>
+        <f>IF(A17='[2]XS Rating Step B-F Inputs'!A17,0,1)</f>
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" s="407">
-        <f>IF(A18='[1]XS Rating Step B-F Inputs'!A18,0,1)</f>
+        <f>IF(A18='[2]XS Rating Step B-F Inputs'!A18,0,1)</f>
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" s="407">
-        <f>IF(A19='[1]XS Rating Step B-F Inputs'!A19,0,1)</f>
+        <f>IF(A19='[2]XS Rating Step B-F Inputs'!A19,0,1)</f>
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" s="407">
-        <f>IF(A20='[1]XS Rating Step B-F Inputs'!A20,0,1)</f>
+        <f>IF(A20='[2]XS Rating Step B-F Inputs'!A20,0,1)</f>
         <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" s="407">
-        <f>IF(A21='[1]XS Rating Step B-F Inputs'!A21,0,1)</f>
+        <f>IF(A21='[2]XS Rating Step B-F Inputs'!A21,0,1)</f>
         <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" s="407">
-        <f>IF(A22='[1]XS Rating Step B-F Inputs'!A22,0,1)</f>
+        <f>IF(A22='[2]XS Rating Step B-F Inputs'!A22,0,1)</f>
         <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" s="407">
-        <f>IF(A23='[1]XS Rating Step B-F Inputs'!A23,0,1)</f>
+        <f>IF(A23='[2]XS Rating Step B-F Inputs'!A23,0,1)</f>
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" s="407">
-        <f>IF(A24='[1]XS Rating Step B-F Inputs'!A24,0,1)</f>
+        <f>IF(A24='[2]XS Rating Step B-F Inputs'!A24,0,1)</f>
         <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" s="407">
-        <f>IF(A25='[1]XS Rating Step B-F Inputs'!A25,0,1)</f>
+        <f>IF(A25='[2]XS Rating Step B-F Inputs'!A25,0,1)</f>
         <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" s="407">
-        <f>IF(A26='[1]XS Rating Step B-F Inputs'!A26,0,1)</f>
+        <f>IF(A26='[2]XS Rating Step B-F Inputs'!A26,0,1)</f>
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" s="407">
-        <f>IF(A27='[1]XS Rating Step B-F Inputs'!A27,0,1)</f>
+        <f>IF(A27='[2]XS Rating Step B-F Inputs'!A27,0,1)</f>
         <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" s="407">
-        <f>IF(A28='[1]XS Rating Step B-F Inputs'!A28,0,1)</f>
+        <f>IF(A28='[2]XS Rating Step B-F Inputs'!A28,0,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -44297,13 +44303,13 @@
       <c r="M20" s="405"/>
     </row>
     <row r="21" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="440" t="s">
+      <c r="A21" s="441" t="s">
         <v>228</v>
       </c>
-      <c r="B21" s="441"/>
-      <c r="C21" s="441"/>
-      <c r="D21" s="441"/>
-      <c r="E21" s="442"/>
+      <c r="B21" s="442"/>
+      <c r="C21" s="442"/>
+      <c r="D21" s="442"/>
+      <c r="E21" s="443"/>
       <c r="F21" s="405"/>
       <c r="G21" s="405"/>
       <c r="H21" s="405"/>
@@ -44314,13 +44320,13 @@
       <c r="M21" s="405"/>
     </row>
     <row r="22" spans="1:13" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="443" t="s">
+      <c r="A22" s="444" t="s">
         <v>229</v>
       </c>
-      <c r="B22" s="444"/>
-      <c r="C22" s="444"/>
-      <c r="D22" s="444"/>
-      <c r="E22" s="445"/>
+      <c r="B22" s="445"/>
+      <c r="C22" s="445"/>
+      <c r="D22" s="445"/>
+      <c r="E22" s="446"/>
       <c r="F22" s="405"/>
       <c r="G22" s="405"/>
       <c r="H22" s="405"/>
@@ -44331,13 +44337,13 @@
       <c r="M22" s="405"/>
     </row>
     <row r="23" spans="1:13" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="437" t="s">
+      <c r="A23" s="438" t="s">
         <v>230</v>
       </c>
-      <c r="B23" s="438"/>
-      <c r="C23" s="438"/>
-      <c r="D23" s="438"/>
-      <c r="E23" s="439"/>
+      <c r="B23" s="439"/>
+      <c r="C23" s="439"/>
+      <c r="D23" s="439"/>
+      <c r="E23" s="440"/>
       <c r="F23" s="405"/>
       <c r="G23" s="405"/>
       <c r="H23" s="405"/>
@@ -44348,13 +44354,13 @@
       <c r="M23" s="405"/>
     </row>
     <row r="24" spans="1:13" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="440" t="s">
+      <c r="A24" s="441" t="s">
         <v>231</v>
       </c>
-      <c r="B24" s="441"/>
-      <c r="C24" s="441"/>
-      <c r="D24" s="441"/>
-      <c r="E24" s="442"/>
+      <c r="B24" s="442"/>
+      <c r="C24" s="442"/>
+      <c r="D24" s="442"/>
+      <c r="E24" s="443"/>
       <c r="F24" s="405"/>
       <c r="G24" s="405"/>
       <c r="H24" s="405"/>
@@ -44395,13 +44401,13 @@
       <c r="M26" s="405"/>
     </row>
     <row r="27" spans="1:13" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="437" t="s">
+      <c r="A27" s="438" t="s">
         <v>232</v>
       </c>
-      <c r="B27" s="438"/>
-      <c r="C27" s="438"/>
-      <c r="D27" s="438"/>
-      <c r="E27" s="439"/>
+      <c r="B27" s="439"/>
+      <c r="C27" s="439"/>
+      <c r="D27" s="439"/>
+      <c r="E27" s="440"/>
       <c r="F27" s="405"/>
       <c r="G27" s="405"/>
       <c r="H27" s="405"/>
@@ -45303,12 +45309,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -45317,7 +45317,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010049293E3573B65444BA5B2C60410ACC2D" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c8e79ff903909cd495a7ff73184aa56b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="be5ddecb-6b30-483b-9ede-60bdbc5c6842" xmlns:ns3="bdbb6394-3ceb-495a-bd0d-2d8a27ddd6a6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="42045ba9069e5191fc3eeb86a9d0bcf9" ns2:_="" ns3:_="">
     <xsd:import namespace="be5ddecb-6b30-483b-9ede-60bdbc5c6842"/>
@@ -45534,24 +45534,13 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FAD7F2B9-E427-4754-A0F1-D50F6BFB708D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="be5ddecb-6b30-483b-9ede-60bdbc5c6842"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="bdbb6394-3ceb-495a-bd0d-2d8a27ddd6a6"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9376FC10-5F9F-4721-BE32-2D02E861397A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -45559,7 +45548,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{35C6F0D3-414D-4971-B42A-891528C32518}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -45576,4 +45565,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FAD7F2B9-E427-4754-A0F1-D50F6BFB708D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="be5ddecb-6b30-483b-9ede-60bdbc5c6842"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="bdbb6394-3ceb-495a-bd0d-2d8a27ddd6a6"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Data/RatingExample1_Intel.xlsx
+++ b/Data/RatingExample1_Intel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niraj\PycharmProjects\RFTSeleniumTutorial\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D338195D-CBD7-4B85-9F34-915A62A17AE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49C3AFBB-02D4-488B-B154-C932CC1CD4DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A55E5FDA-B46E-4E4C-B0FC-D9DD7C24980F}"/>
+    <workbookView xWindow="3420" yWindow="3420" windowWidth="18900" windowHeight="11055" xr2:uid="{A55E5FDA-B46E-4E4C-B0FC-D9DD7C24980F}"/>
   </bookViews>
   <sheets>
     <sheet name="Step 1" sheetId="6" r:id="rId1"/>
@@ -4882,90 +4882,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4984,20 +4900,107 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -5014,20 +5017,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -31033,6 +31033,24 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="BV11:BZ11"/>
+    <mergeCell ref="AR11:AV11"/>
+    <mergeCell ref="AX11:BB11"/>
+    <mergeCell ref="BD11:BH11"/>
+    <mergeCell ref="BJ11:BN11"/>
+    <mergeCell ref="BP11:BT11"/>
+    <mergeCell ref="N11:R11"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="AL11:AP11"/>
+    <mergeCell ref="AF11:AJ11"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="Z11:AD11"/>
+    <mergeCell ref="T11:X11"/>
+    <mergeCell ref="CB11:CF11"/>
+    <mergeCell ref="CH11:CL11"/>
+    <mergeCell ref="CN11:CR11"/>
+    <mergeCell ref="CT11:CX11"/>
+    <mergeCell ref="CZ11:DD11"/>
     <mergeCell ref="EJ11:EN11"/>
     <mergeCell ref="EP11:ET11"/>
     <mergeCell ref="EV11:EZ11"/>
@@ -31041,24 +31059,6 @@
     <mergeCell ref="DR11:DV11"/>
     <mergeCell ref="DX11:EB11"/>
     <mergeCell ref="ED11:EH11"/>
-    <mergeCell ref="CB11:CF11"/>
-    <mergeCell ref="CH11:CL11"/>
-    <mergeCell ref="CN11:CR11"/>
-    <mergeCell ref="CT11:CX11"/>
-    <mergeCell ref="CZ11:DD11"/>
-    <mergeCell ref="N11:R11"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="AL11:AP11"/>
-    <mergeCell ref="AF11:AJ11"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="Z11:AD11"/>
-    <mergeCell ref="T11:X11"/>
-    <mergeCell ref="BV11:BZ11"/>
-    <mergeCell ref="AR11:AV11"/>
-    <mergeCell ref="AX11:BB11"/>
-    <mergeCell ref="BD11:BH11"/>
-    <mergeCell ref="BJ11:BN11"/>
-    <mergeCell ref="BP11:BT11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -39498,11 +39498,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="458"/>
-      <c r="B1" s="458"/>
-      <c r="C1" s="458"/>
-      <c r="D1" s="458"/>
-      <c r="E1" s="458"/>
+      <c r="A1" s="468"/>
+      <c r="B1" s="468"/>
+      <c r="C1" s="468"/>
+      <c r="D1" s="468"/>
+      <c r="E1" s="468"/>
       <c r="F1" s="44"/>
       <c r="G1" s="44"/>
       <c r="H1" s="44"/>
@@ -39517,13 +39517,13 @@
       <c r="Q1" s="44"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="458" t="s">
+      <c r="A2" s="468" t="s">
         <v>589</v>
       </c>
-      <c r="B2" s="458"/>
-      <c r="C2" s="458"/>
-      <c r="D2" s="458"/>
-      <c r="E2" s="458"/>
+      <c r="B2" s="468"/>
+      <c r="C2" s="468"/>
+      <c r="D2" s="468"/>
+      <c r="E2" s="468"/>
       <c r="F2" s="44"/>
       <c r="G2" s="44"/>
       <c r="H2" s="44"/>
@@ -39538,13 +39538,13 @@
       <c r="Q2" s="44"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="458" t="s">
+      <c r="A3" s="468" t="s">
         <v>590</v>
       </c>
-      <c r="B3" s="458"/>
-      <c r="C3" s="458"/>
-      <c r="D3" s="458"/>
-      <c r="E3" s="458"/>
+      <c r="B3" s="468"/>
+      <c r="C3" s="468"/>
+      <c r="D3" s="468"/>
+      <c r="E3" s="468"/>
       <c r="F3" s="44"/>
       <c r="G3" s="44"/>
       <c r="H3" s="44"/>
@@ -39559,406 +39559,406 @@
       <c r="Q3" s="44"/>
     </row>
     <row r="4" spans="1:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="458" t="s">
+      <c r="A4" s="468" t="s">
         <v>636</v>
       </c>
-      <c r="B4" s="458"/>
-      <c r="C4" s="458"/>
+      <c r="B4" s="468"/>
+      <c r="C4" s="468"/>
       <c r="D4" s="45"/>
       <c r="E4" s="45"/>
     </row>
     <row r="5" spans="1:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="458" t="s">
+      <c r="A5" s="468" t="s">
         <v>637</v>
       </c>
-      <c r="B5" s="458"/>
-      <c r="C5" s="458"/>
-      <c r="D5" s="459" t="s">
+      <c r="B5" s="468"/>
+      <c r="C5" s="468"/>
+      <c r="D5" s="491" t="s">
         <v>638</v>
       </c>
-      <c r="E5" s="459"/>
+      <c r="E5" s="491"/>
     </row>
     <row r="6" spans="1:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="460" t="s">
+      <c r="A6" s="489" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="461"/>
-      <c r="C6" s="461"/>
-      <c r="D6" s="463" t="s">
+      <c r="B6" s="490"/>
+      <c r="C6" s="490"/>
+      <c r="D6" s="472" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="464"/>
+      <c r="E6" s="473"/>
     </row>
     <row r="7" spans="1:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="458" t="s">
+      <c r="A7" s="468" t="s">
         <v>639</v>
       </c>
-      <c r="B7" s="458"/>
-      <c r="C7" s="458"/>
-      <c r="D7" s="462"/>
-      <c r="E7" s="462"/>
+      <c r="B7" s="468"/>
+      <c r="C7" s="468"/>
+      <c r="D7" s="470"/>
+      <c r="E7" s="470"/>
     </row>
     <row r="8" spans="1:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="460" t="s">
+      <c r="A8" s="489" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="461"/>
-      <c r="C8" s="461"/>
-      <c r="D8" s="463" t="s">
+      <c r="B8" s="490"/>
+      <c r="C8" s="490"/>
+      <c r="D8" s="472" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="464"/>
+      <c r="E8" s="473"/>
     </row>
     <row r="9" spans="1:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="458" t="s">
+      <c r="A9" s="468" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="458"/>
-      <c r="C9" s="458"/>
-      <c r="D9" s="465"/>
-      <c r="E9" s="465"/>
+      <c r="B9" s="468"/>
+      <c r="C9" s="468"/>
+      <c r="D9" s="469"/>
+      <c r="E9" s="469"/>
     </row>
     <row r="10" spans="1:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="466" t="s">
+      <c r="A10" s="484" t="s">
         <v>640</v>
       </c>
-      <c r="B10" s="467"/>
-      <c r="C10" s="467"/>
-      <c r="D10" s="471" t="s">
+      <c r="B10" s="485"/>
+      <c r="C10" s="485"/>
+      <c r="D10" s="477" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="472"/>
+      <c r="E10" s="478"/>
     </row>
     <row r="11" spans="1:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="468" t="s">
+      <c r="A11" s="486" t="s">
         <v>641</v>
       </c>
-      <c r="B11" s="465"/>
-      <c r="C11" s="465"/>
-      <c r="D11" s="462" t="s">
+      <c r="B11" s="469"/>
+      <c r="C11" s="469"/>
+      <c r="D11" s="470" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="473"/>
+      <c r="E11" s="480"/>
     </row>
     <row r="12" spans="1:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="469" t="s">
+      <c r="A12" s="487" t="s">
         <v>642</v>
       </c>
-      <c r="B12" s="470"/>
-      <c r="C12" s="470"/>
-      <c r="D12" s="474" t="s">
+      <c r="B12" s="488"/>
+      <c r="C12" s="488"/>
+      <c r="D12" s="482" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="475"/>
+      <c r="E12" s="483"/>
     </row>
     <row r="13" spans="1:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="458" t="s">
+      <c r="A13" s="468" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="458"/>
-      <c r="C13" s="458"/>
-      <c r="D13" s="465"/>
-      <c r="E13" s="465"/>
+      <c r="B13" s="468"/>
+      <c r="C13" s="468"/>
+      <c r="D13" s="469"/>
+      <c r="E13" s="469"/>
     </row>
     <row r="14" spans="1:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="476" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="471"/>
-      <c r="C14" s="471"/>
-      <c r="D14" s="471" t="s">
+      <c r="B14" s="477"/>
+      <c r="C14" s="477"/>
+      <c r="D14" s="477" t="s">
         <v>40</v>
       </c>
-      <c r="E14" s="472"/>
+      <c r="E14" s="478"/>
     </row>
     <row r="15" spans="1:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="477" t="s">
+      <c r="A15" s="479" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="462"/>
-      <c r="C15" s="462"/>
-      <c r="D15" s="462" t="s">
+      <c r="B15" s="470"/>
+      <c r="C15" s="470"/>
+      <c r="D15" s="470" t="s">
         <v>42</v>
       </c>
-      <c r="E15" s="473"/>
+      <c r="E15" s="480"/>
     </row>
     <row r="16" spans="1:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="478" t="s">
+      <c r="A16" s="481" t="s">
         <v>43</v>
       </c>
-      <c r="B16" s="474"/>
-      <c r="C16" s="474"/>
-      <c r="D16" s="474" t="s">
+      <c r="B16" s="482"/>
+      <c r="C16" s="482"/>
+      <c r="D16" s="482" t="s">
         <v>643</v>
       </c>
-      <c r="E16" s="475"/>
+      <c r="E16" s="483"/>
     </row>
     <row r="17" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="458" t="s">
+      <c r="A17" s="468" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="458"/>
-      <c r="C17" s="458"/>
-      <c r="D17" s="465"/>
-      <c r="E17" s="465"/>
+      <c r="B17" s="468"/>
+      <c r="C17" s="468"/>
+      <c r="D17" s="469"/>
+      <c r="E17" s="469"/>
     </row>
     <row r="18" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="476" t="s">
         <v>46</v>
       </c>
-      <c r="B18" s="471"/>
-      <c r="C18" s="471"/>
-      <c r="D18" s="471" t="s">
+      <c r="B18" s="477"/>
+      <c r="C18" s="477"/>
+      <c r="D18" s="477" t="s">
         <v>47</v>
       </c>
-      <c r="E18" s="472"/>
+      <c r="E18" s="478"/>
     </row>
     <row r="19" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="478" t="s">
+      <c r="A19" s="481" t="s">
         <v>48</v>
       </c>
-      <c r="B19" s="474"/>
-      <c r="C19" s="474"/>
-      <c r="D19" s="474" t="s">
+      <c r="B19" s="482"/>
+      <c r="C19" s="482"/>
+      <c r="D19" s="482" t="s">
         <v>49</v>
       </c>
-      <c r="E19" s="475"/>
+      <c r="E19" s="483"/>
     </row>
     <row r="20" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="458" t="s">
+      <c r="A20" s="468" t="s">
         <v>50</v>
       </c>
-      <c r="B20" s="458"/>
-      <c r="C20" s="458"/>
-      <c r="D20" s="465"/>
-      <c r="E20" s="465"/>
+      <c r="B20" s="468"/>
+      <c r="C20" s="468"/>
+      <c r="D20" s="469"/>
+      <c r="E20" s="469"/>
     </row>
     <row r="21" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="476" t="s">
         <v>46</v>
       </c>
-      <c r="B21" s="471"/>
-      <c r="C21" s="471"/>
-      <c r="D21" s="471" t="s">
+      <c r="B21" s="477"/>
+      <c r="C21" s="477"/>
+      <c r="D21" s="477" t="s">
         <v>51</v>
       </c>
-      <c r="E21" s="472"/>
+      <c r="E21" s="478"/>
     </row>
     <row r="22" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="477" t="s">
+      <c r="A22" s="479" t="s">
         <v>52</v>
       </c>
-      <c r="B22" s="462"/>
-      <c r="C22" s="462"/>
-      <c r="D22" s="462" t="s">
+      <c r="B22" s="470"/>
+      <c r="C22" s="470"/>
+      <c r="D22" s="470" t="s">
         <v>53</v>
       </c>
-      <c r="E22" s="473"/>
+      <c r="E22" s="480"/>
     </row>
     <row r="23" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="478" t="s">
+      <c r="A23" s="481" t="s">
         <v>54</v>
       </c>
-      <c r="B23" s="474"/>
-      <c r="C23" s="474"/>
-      <c r="D23" s="474" t="s">
+      <c r="B23" s="482"/>
+      <c r="C23" s="482"/>
+      <c r="D23" s="482" t="s">
         <v>55</v>
       </c>
-      <c r="E23" s="475"/>
+      <c r="E23" s="483"/>
     </row>
     <row r="24" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="458" t="s">
+      <c r="A24" s="468" t="s">
         <v>56</v>
       </c>
-      <c r="B24" s="458"/>
-      <c r="C24" s="458"/>
-      <c r="D24" s="465"/>
-      <c r="E24" s="465"/>
+      <c r="B24" s="468"/>
+      <c r="C24" s="468"/>
+      <c r="D24" s="469"/>
+      <c r="E24" s="469"/>
     </row>
     <row r="25" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="476" t="s">
         <v>57</v>
       </c>
-      <c r="B25" s="471"/>
-      <c r="C25" s="471"/>
-      <c r="D25" s="471" t="s">
+      <c r="B25" s="477"/>
+      <c r="C25" s="477"/>
+      <c r="D25" s="477" t="s">
         <v>42</v>
       </c>
-      <c r="E25" s="472"/>
+      <c r="E25" s="478"/>
     </row>
     <row r="26" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="477" t="s">
+      <c r="A26" s="479" t="s">
         <v>58</v>
       </c>
-      <c r="B26" s="462"/>
-      <c r="C26" s="462"/>
-      <c r="D26" s="462" t="s">
+      <c r="B26" s="470"/>
+      <c r="C26" s="470"/>
+      <c r="D26" s="470" t="s">
         <v>59</v>
       </c>
-      <c r="E26" s="473"/>
+      <c r="E26" s="480"/>
     </row>
     <row r="27" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="478" t="s">
+      <c r="A27" s="481" t="s">
         <v>60</v>
       </c>
-      <c r="B27" s="474"/>
-      <c r="C27" s="474"/>
-      <c r="D27" s="474" t="s">
+      <c r="B27" s="482"/>
+      <c r="C27" s="482"/>
+      <c r="D27" s="482" t="s">
         <v>55</v>
       </c>
-      <c r="E27" s="475"/>
+      <c r="E27" s="483"/>
     </row>
     <row r="28" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="458" t="s">
+      <c r="A28" s="468" t="s">
         <v>61</v>
       </c>
-      <c r="B28" s="458"/>
-      <c r="C28" s="458"/>
-      <c r="D28" s="465"/>
-      <c r="E28" s="465"/>
+      <c r="B28" s="468"/>
+      <c r="C28" s="468"/>
+      <c r="D28" s="469"/>
+      <c r="E28" s="469"/>
     </row>
     <row r="29" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="481" t="s">
+      <c r="A29" s="471" t="s">
         <v>62</v>
       </c>
-      <c r="B29" s="463"/>
-      <c r="C29" s="463"/>
-      <c r="D29" s="463" t="s">
+      <c r="B29" s="472"/>
+      <c r="C29" s="472"/>
+      <c r="D29" s="472" t="s">
         <v>63</v>
       </c>
-      <c r="E29" s="464"/>
+      <c r="E29" s="473"/>
     </row>
     <row r="30" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="458" t="s">
+      <c r="A30" s="468" t="s">
         <v>65</v>
       </c>
-      <c r="B30" s="458"/>
-      <c r="C30" s="458"/>
-      <c r="D30" s="462"/>
-      <c r="E30" s="462"/>
+      <c r="B30" s="468"/>
+      <c r="C30" s="468"/>
+      <c r="D30" s="470"/>
+      <c r="E30" s="470"/>
     </row>
     <row r="31" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="488" t="s">
+      <c r="A31" s="460" t="s">
         <v>644</v>
       </c>
-      <c r="B31" s="491">
+      <c r="B31" s="463">
         <v>0</v>
       </c>
-      <c r="C31" s="491"/>
-      <c r="D31" s="482">
+      <c r="C31" s="463"/>
+      <c r="D31" s="474">
         <v>1</v>
       </c>
-      <c r="E31" s="483"/>
+      <c r="E31" s="475"/>
     </row>
     <row r="32" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="489"/>
-      <c r="B32" s="486">
+      <c r="A32" s="461"/>
+      <c r="B32" s="458">
         <v>0.05</v>
       </c>
-      <c r="C32" s="486"/>
-      <c r="D32" s="479" t="s">
+      <c r="C32" s="458"/>
+      <c r="D32" s="464" t="s">
         <v>66</v>
       </c>
-      <c r="E32" s="480"/>
+      <c r="E32" s="465"/>
     </row>
     <row r="33" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="489"/>
-      <c r="B33" s="486">
+      <c r="A33" s="461"/>
+      <c r="B33" s="458">
         <v>0.1</v>
       </c>
-      <c r="C33" s="486"/>
-      <c r="D33" s="479" t="s">
+      <c r="C33" s="458"/>
+      <c r="D33" s="464" t="s">
         <v>67</v>
       </c>
-      <c r="E33" s="480"/>
+      <c r="E33" s="465"/>
     </row>
     <row r="34" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="489"/>
-      <c r="B34" s="486">
+      <c r="A34" s="461"/>
+      <c r="B34" s="458">
         <v>0.15</v>
       </c>
-      <c r="C34" s="486"/>
-      <c r="D34" s="479" t="s">
+      <c r="C34" s="458"/>
+      <c r="D34" s="464" t="s">
         <v>68</v>
       </c>
-      <c r="E34" s="480"/>
+      <c r="E34" s="465"/>
     </row>
     <row r="35" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="489"/>
-      <c r="B35" s="486">
+      <c r="A35" s="461"/>
+      <c r="B35" s="458">
         <v>0.2</v>
       </c>
-      <c r="C35" s="486"/>
-      <c r="D35" s="479" t="s">
+      <c r="C35" s="458"/>
+      <c r="D35" s="464" t="s">
         <v>69</v>
       </c>
-      <c r="E35" s="480"/>
+      <c r="E35" s="465"/>
     </row>
     <row r="36" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="489"/>
-      <c r="B36" s="486">
+      <c r="A36" s="461"/>
+      <c r="B36" s="458">
         <v>0.25</v>
       </c>
-      <c r="C36" s="486"/>
-      <c r="D36" s="479" t="s">
+      <c r="C36" s="458"/>
+      <c r="D36" s="464" t="s">
         <v>70</v>
       </c>
-      <c r="E36" s="480"/>
+      <c r="E36" s="465"/>
     </row>
     <row r="37" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="489"/>
-      <c r="B37" s="486">
+      <c r="A37" s="461"/>
+      <c r="B37" s="458">
         <v>0.3</v>
       </c>
-      <c r="C37" s="486"/>
-      <c r="D37" s="479" t="s">
+      <c r="C37" s="458"/>
+      <c r="D37" s="464" t="s">
         <v>71</v>
       </c>
-      <c r="E37" s="480"/>
+      <c r="E37" s="465"/>
     </row>
     <row r="38" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="489"/>
-      <c r="B38" s="486">
+      <c r="A38" s="461"/>
+      <c r="B38" s="458">
         <v>0.35</v>
       </c>
-      <c r="C38" s="486"/>
-      <c r="D38" s="479" t="s">
+      <c r="C38" s="458"/>
+      <c r="D38" s="464" t="s">
         <v>72</v>
       </c>
-      <c r="E38" s="480"/>
+      <c r="E38" s="465"/>
     </row>
     <row r="39" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="489"/>
-      <c r="B39" s="486">
+      <c r="A39" s="461"/>
+      <c r="B39" s="458">
         <v>0.4</v>
       </c>
-      <c r="C39" s="486"/>
-      <c r="D39" s="479" t="s">
+      <c r="C39" s="458"/>
+      <c r="D39" s="464" t="s">
         <v>73</v>
       </c>
-      <c r="E39" s="480"/>
+      <c r="E39" s="465"/>
     </row>
     <row r="40" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="489"/>
-      <c r="B40" s="486">
+      <c r="A40" s="461"/>
+      <c r="B40" s="458">
         <v>0.45</v>
       </c>
-      <c r="C40" s="486"/>
-      <c r="D40" s="479" t="s">
+      <c r="C40" s="458"/>
+      <c r="D40" s="464" t="s">
         <v>74</v>
       </c>
-      <c r="E40" s="480"/>
+      <c r="E40" s="465"/>
     </row>
     <row r="41" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="490"/>
-      <c r="B41" s="487">
+      <c r="A41" s="462"/>
+      <c r="B41" s="459">
         <v>0.5</v>
       </c>
-      <c r="C41" s="487"/>
-      <c r="D41" s="484" t="s">
+      <c r="C41" s="459"/>
+      <c r="D41" s="466" t="s">
         <v>75</v>
       </c>
-      <c r="E41" s="485"/>
+      <c r="E41" s="467"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B42" s="46"/>
@@ -39968,6 +39968,73 @@
     </row>
   </sheetData>
   <mergeCells count="79">
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D41:E41"/>
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="B41:C41"/>
@@ -39980,73 +40047,6 @@
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="B37:C37"/>
     <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="D5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -40067,44 +40067,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="499"/>
-      <c r="B1" s="499"/>
-      <c r="C1" s="499"/>
-      <c r="D1" s="499"/>
+      <c r="A1" s="500"/>
+      <c r="B1" s="500"/>
+      <c r="C1" s="500"/>
+      <c r="D1" s="500"/>
     </row>
     <row r="2" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="499" t="s">
+      <c r="A2" s="500" t="s">
         <v>589</v>
       </c>
-      <c r="B2" s="499"/>
-      <c r="C2" s="499"/>
-      <c r="D2" s="499"/>
+      <c r="B2" s="500"/>
+      <c r="C2" s="500"/>
+      <c r="D2" s="500"/>
     </row>
     <row r="3" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="499" t="s">
+      <c r="A3" s="500" t="s">
         <v>590</v>
       </c>
-      <c r="B3" s="499"/>
-      <c r="C3" s="499"/>
-      <c r="D3" s="499"/>
+      <c r="B3" s="500"/>
+      <c r="C3" s="500"/>
+      <c r="D3" s="500"/>
     </row>
     <row r="4" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="500" t="s">
+      <c r="A4" s="501" t="s">
         <v>636</v>
       </c>
-      <c r="B4" s="500"/>
-      <c r="C4" s="500"/>
-      <c r="D4" s="500"/>
+      <c r="B4" s="501"/>
+      <c r="C4" s="501"/>
+      <c r="D4" s="501"/>
     </row>
     <row r="5" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="492" t="s">
+      <c r="A5" s="497" t="s">
         <v>77</v>
       </c>
-      <c r="B5" s="492"/>
-      <c r="C5" s="501" t="s">
+      <c r="B5" s="497"/>
+      <c r="C5" s="502" t="s">
         <v>638</v>
       </c>
-      <c r="D5" s="501"/>
+      <c r="D5" s="502"/>
     </row>
     <row r="6" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="83" t="s">
@@ -40177,14 +40177,14 @@
       <c r="D12" s="74"/>
     </row>
     <row r="13" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="492" t="s">
+      <c r="A13" s="497" t="s">
         <v>90</v>
       </c>
-      <c r="B13" s="492"/>
-      <c r="C13" s="492" t="s">
+      <c r="B13" s="497"/>
+      <c r="C13" s="497" t="s">
         <v>645</v>
       </c>
-      <c r="D13" s="492"/>
+      <c r="D13" s="497"/>
     </row>
     <row r="14" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="83" t="s">
@@ -40217,261 +40217,251 @@
       <c r="D16" s="74"/>
     </row>
     <row r="17" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="492" t="s">
+      <c r="A17" s="497" t="s">
         <v>646</v>
       </c>
-      <c r="B17" s="492"/>
-      <c r="C17" s="492" t="s">
+      <c r="B17" s="497"/>
+      <c r="C17" s="497" t="s">
         <v>638</v>
       </c>
-      <c r="D17" s="492"/>
+      <c r="D17" s="497"/>
     </row>
     <row r="18" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="495" t="s">
+      <c r="A18" s="505" t="s">
         <v>97</v>
       </c>
-      <c r="B18" s="496"/>
-      <c r="C18" s="503" t="s">
+      <c r="B18" s="506"/>
+      <c r="C18" s="495" t="s">
         <v>98</v>
       </c>
-      <c r="D18" s="504"/>
+      <c r="D18" s="496"/>
     </row>
     <row r="19" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="493" t="s">
+      <c r="A19" s="503" t="s">
         <v>99</v>
       </c>
-      <c r="B19" s="494"/>
-      <c r="C19" s="502" t="s">
+      <c r="B19" s="504"/>
+      <c r="C19" s="494" t="s">
         <v>100</v>
       </c>
-      <c r="D19" s="502"/>
+      <c r="D19" s="494"/>
     </row>
     <row r="20" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="493" t="s">
+      <c r="A20" s="503" t="s">
         <v>101</v>
       </c>
-      <c r="B20" s="494"/>
-      <c r="C20" s="502" t="s">
+      <c r="B20" s="504"/>
+      <c r="C20" s="494" t="s">
         <v>102</v>
       </c>
-      <c r="D20" s="502"/>
+      <c r="D20" s="494"/>
     </row>
     <row r="21" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="493" t="s">
+      <c r="A21" s="503" t="s">
         <v>103</v>
       </c>
-      <c r="B21" s="494"/>
-      <c r="C21" s="502" t="s">
+      <c r="B21" s="504"/>
+      <c r="C21" s="494" t="s">
         <v>98</v>
       </c>
-      <c r="D21" s="502"/>
+      <c r="D21" s="494"/>
     </row>
     <row r="22" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="493" t="s">
+      <c r="A22" s="503" t="s">
         <v>104</v>
       </c>
-      <c r="B22" s="494"/>
-      <c r="C22" s="502" t="s">
+      <c r="B22" s="504"/>
+      <c r="C22" s="494" t="s">
         <v>98</v>
       </c>
-      <c r="D22" s="502"/>
+      <c r="D22" s="494"/>
     </row>
     <row r="23" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="493" t="s">
+      <c r="A23" s="503" t="s">
         <v>105</v>
       </c>
-      <c r="B23" s="494"/>
-      <c r="C23" s="502" t="s">
+      <c r="B23" s="504"/>
+      <c r="C23" s="494" t="s">
         <v>106</v>
       </c>
-      <c r="D23" s="502"/>
+      <c r="D23" s="494"/>
     </row>
     <row r="24" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="493" t="s">
+      <c r="A24" s="503" t="s">
         <v>107</v>
       </c>
-      <c r="B24" s="494"/>
-      <c r="C24" s="502" t="s">
+      <c r="B24" s="504"/>
+      <c r="C24" s="494" t="s">
         <v>53</v>
       </c>
-      <c r="D24" s="502"/>
+      <c r="D24" s="494"/>
     </row>
     <row r="25" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="493" t="s">
+      <c r="A25" s="503" t="s">
         <v>647</v>
       </c>
-      <c r="B25" s="494"/>
-      <c r="C25" s="502" t="s">
+      <c r="B25" s="504"/>
+      <c r="C25" s="494" t="s">
         <v>109</v>
       </c>
-      <c r="D25" s="502"/>
+      <c r="D25" s="494"/>
     </row>
     <row r="26" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="493" t="s">
+      <c r="A26" s="503" t="s">
         <v>110</v>
       </c>
-      <c r="B26" s="494"/>
-      <c r="C26" s="502" t="s">
+      <c r="B26" s="504"/>
+      <c r="C26" s="494" t="s">
         <v>98</v>
       </c>
-      <c r="D26" s="502"/>
+      <c r="D26" s="494"/>
     </row>
     <row r="27" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="497" t="s">
+      <c r="A27" s="498" t="s">
         <v>111</v>
       </c>
-      <c r="B27" s="498"/>
-      <c r="C27" s="505" t="s">
+      <c r="B27" s="499"/>
+      <c r="C27" s="492" t="s">
         <v>106</v>
       </c>
-      <c r="D27" s="506"/>
+      <c r="D27" s="493"/>
     </row>
     <row r="28" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="495" t="s">
+      <c r="A28" s="505" t="s">
         <v>112</v>
       </c>
-      <c r="B28" s="496"/>
-      <c r="C28" s="503" t="s">
+      <c r="B28" s="506"/>
+      <c r="C28" s="495" t="s">
         <v>98</v>
       </c>
-      <c r="D28" s="504"/>
+      <c r="D28" s="496"/>
     </row>
     <row r="29" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="493" t="s">
+      <c r="A29" s="503" t="s">
         <v>113</v>
       </c>
-      <c r="B29" s="494"/>
-      <c r="C29" s="502" t="s">
+      <c r="B29" s="504"/>
+      <c r="C29" s="494" t="s">
         <v>98</v>
       </c>
-      <c r="D29" s="502"/>
+      <c r="D29" s="494"/>
     </row>
     <row r="30" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="493" t="s">
+      <c r="A30" s="503" t="s">
         <v>114</v>
       </c>
-      <c r="B30" s="494"/>
-      <c r="C30" s="502" t="s">
+      <c r="B30" s="504"/>
+      <c r="C30" s="494" t="s">
         <v>115</v>
       </c>
-      <c r="D30" s="502"/>
+      <c r="D30" s="494"/>
     </row>
     <row r="31" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="493" t="s">
+      <c r="A31" s="503" t="s">
         <v>116</v>
       </c>
-      <c r="B31" s="494"/>
-      <c r="C31" s="502" t="s">
+      <c r="B31" s="504"/>
+      <c r="C31" s="494" t="s">
         <v>98</v>
       </c>
-      <c r="D31" s="502"/>
+      <c r="D31" s="494"/>
     </row>
     <row r="32" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="493" t="s">
+      <c r="A32" s="503" t="s">
         <v>117</v>
       </c>
-      <c r="B32" s="494"/>
-      <c r="C32" s="502" t="s">
+      <c r="B32" s="504"/>
+      <c r="C32" s="494" t="s">
         <v>98</v>
       </c>
-      <c r="D32" s="502"/>
+      <c r="D32" s="494"/>
     </row>
     <row r="33" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="493" t="s">
+      <c r="A33" s="503" t="s">
         <v>118</v>
       </c>
-      <c r="B33" s="494"/>
-      <c r="C33" s="502" t="s">
+      <c r="B33" s="504"/>
+      <c r="C33" s="494" t="s">
         <v>119</v>
       </c>
-      <c r="D33" s="502"/>
+      <c r="D33" s="494"/>
     </row>
     <row r="34" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="493" t="s">
+      <c r="A34" s="503" t="s">
         <v>120</v>
       </c>
-      <c r="B34" s="494"/>
-      <c r="C34" s="502" t="s">
+      <c r="B34" s="504"/>
+      <c r="C34" s="494" t="s">
         <v>98</v>
       </c>
-      <c r="D34" s="502"/>
+      <c r="D34" s="494"/>
     </row>
     <row r="35" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="493" t="s">
+      <c r="A35" s="503" t="s">
         <v>648</v>
       </c>
-      <c r="B35" s="494"/>
-      <c r="C35" s="502" t="s">
+      <c r="B35" s="504"/>
+      <c r="C35" s="494" t="s">
         <v>98</v>
       </c>
-      <c r="D35" s="502"/>
+      <c r="D35" s="494"/>
     </row>
     <row r="36" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="493" t="s">
+      <c r="A36" s="503" t="s">
         <v>122</v>
       </c>
-      <c r="B36" s="494"/>
-      <c r="C36" s="502" t="s">
+      <c r="B36" s="504"/>
+      <c r="C36" s="494" t="s">
         <v>106</v>
       </c>
-      <c r="D36" s="502"/>
+      <c r="D36" s="494"/>
     </row>
     <row r="37" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="493" t="s">
+      <c r="A37" s="503" t="s">
         <v>123</v>
       </c>
-      <c r="B37" s="494"/>
-      <c r="C37" s="502" t="s">
+      <c r="B37" s="504"/>
+      <c r="C37" s="494" t="s">
         <v>98</v>
       </c>
-      <c r="D37" s="502"/>
+      <c r="D37" s="494"/>
     </row>
     <row r="38" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="493" t="s">
+      <c r="A38" s="503" t="s">
         <v>124</v>
       </c>
-      <c r="B38" s="494"/>
-      <c r="C38" s="502" t="s">
+      <c r="B38" s="504"/>
+      <c r="C38" s="494" t="s">
         <v>125</v>
       </c>
-      <c r="D38" s="502"/>
+      <c r="D38" s="494"/>
     </row>
     <row r="39" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="497" t="s">
+      <c r="A39" s="498" t="s">
         <v>126</v>
       </c>
-      <c r="B39" s="498"/>
-      <c r="C39" s="505" t="s">
+      <c r="B39" s="499"/>
+      <c r="C39" s="492" t="s">
         <v>127</v>
       </c>
-      <c r="D39" s="506"/>
+      <c r="D39" s="493"/>
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
@@ -40488,20 +40478,30 @@
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -45309,15 +45309,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010049293E3573B65444BA5B2C60410ACC2D" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c8e79ff903909cd495a7ff73184aa56b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="be5ddecb-6b30-483b-9ede-60bdbc5c6842" xmlns:ns3="bdbb6394-3ceb-495a-bd0d-2d8a27ddd6a6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="42045ba9069e5191fc3eeb86a9d0bcf9" ns2:_="" ns3:_="">
     <xsd:import namespace="be5ddecb-6b30-483b-9ede-60bdbc5c6842"/>
@@ -45534,6 +45525,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -45541,14 +45541,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9376FC10-5F9F-4721-BE32-2D02E861397A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{35C6F0D3-414D-4971-B42A-891528C32518}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -45563,6 +45555,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9376FC10-5F9F-4721-BE32-2D02E861397A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
